--- a/Homework/HW1/FIN514.xlsx
+++ b/Homework/HW1/FIN514.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/FIN514/Homework/HW1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>Replicating Portfolio</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Calculating Implied Volatility(Short Put)</t>
   </si>
   <si>
-    <t xml:space="preserve">*x1 and x2 stands for </t>
-  </si>
-  <si>
     <t>Spot</t>
   </si>
   <si>
@@ -293,6 +290,24 @@
   </si>
   <si>
     <t>Data which does not exist for exact maturity was calculated using linear interpolation.</t>
+  </si>
+  <si>
+    <t>Present Value</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Option Valuation(Using Black-Scholes Model)</t>
+  </si>
+  <si>
+    <t>Price of notes</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>*x1 and x2 stands for the point which is greatest lower bound (least upper bound) used for linear interpolation</t>
   </si>
 </sst>
 </file>
@@ -301,11 +316,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="168" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -377,13 +392,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,14 +408,31 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="blp_column_header" xfId="1"/>
@@ -1266,11 +1298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1678716736"/>
-        <c:axId val="-1727563248"/>
+        <c:axId val="-1971451184"/>
+        <c:axId val="-1971448864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1678716736"/>
+        <c:axId val="-1971451184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727563248"/>
+        <c:crossAx val="-1971448864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1322,7 +1354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1727563248"/>
+        <c:axId val="-1971448864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,6 +1374,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1372,7 +1405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1678716736"/>
+        <c:crossAx val="-1971451184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2275,220 +2308,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I31"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" t="s">
-        <v>86</v>
+      <c r="C2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="16">
         <v>43070</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="16">
         <v>43864</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="17">
         <f>(C3- B3) / 360</f>
         <v>2.2055555555555557</v>
       </c>
-      <c r="I3" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="18">
         <v>2635.03</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="17">
         <f>-LN('Caculation of Parameters'!C10) / 'Main Result'!D3</f>
         <v>1.9382664115765454E-2</v>
       </c>
+      <c r="D7" s="17">
+        <f>SUM(Dividend!E2:E27)</f>
+        <v>112.03308889355326</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
+      <c r="B9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10">
-        <f>$B$6</f>
-        <v>2635.03</v>
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11">
-        <f>'Caculation of Parameters'!C17</f>
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="C11" s="14">
+        <f>$B$7</f>
+        <v>2635.03</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="14">
+        <f>1.1375 * $B$7</f>
+        <v>2997.3466250000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="14">
+        <f>0.875 * $B$7</f>
+        <v>2305.6512500000003</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="e">
-        <f>(LN($B$6/C10)+($C$6+0.5*C11^2)*$D$3)/(C11*SQRT($D$3))</f>
-        <v>#DIV/0!</v>
+        <v>62</v>
+      </c>
+      <c r="C12" s="14">
+        <f>'Caculation of Parameters'!C17</f>
+        <v>0.1621856666666667</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="14">
+        <f>'Caculation of Parameters'!C23</f>
+        <v>0.13149627777777778</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="14">
+        <f>'Caculation of Parameters'!C29</f>
+        <v>0.17952838888888889</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="e">
-        <f>C12 - C11 * SQRT($D$3)</f>
-        <v>#DIV/0!</v>
+        <v>77</v>
+      </c>
+      <c r="C13" s="14">
+        <f>(LN($B$7/C11)+($C$7+0.5*C12^2)*$D$3)/(C12*SQRT($D$3))</f>
+        <v>0.29791620649282535</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="14">
+        <f>(LN($B$7/F11)+($C$7+0.5*F12^2)*$D$3)/(F12*SQRT($D$3))</f>
+        <v>-0.34316178042659928</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="14">
+        <f>(LN($B$7/I11)+($C$7+0.5*I12^2)*$D$3)/(I12*SQRT($D$3))</f>
+        <v>0.79447992824185787</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="e">
-        <f>$B$6 * _xlfn.NORM.DIST(C12, 0, 1, 1) - C10 * EXP(-$C$6 * $D$3) * _xlfn.NORM.DIST(C13, 0, 1, 1) - $D$6</f>
-        <v>#DIV/0!</v>
+        <v>78</v>
+      </c>
+      <c r="C14" s="14">
+        <f>C13 - C12 * SQRT($D$3)</f>
+        <v>5.7052441201828952E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="14">
+        <f>F13 - F12 * SQRT($D$3)</f>
+        <v>-0.53844838767286018</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="14">
+        <f>I13 - I12 * SQRT($D$3)</f>
+        <v>0.52786029030999759</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="14">
+        <f>$B$7 * _xlfn.NORM.DIST(C13, 0, 1, 1) - C11 * EXP(-$C$7 * $D$3) * _xlfn.NORM.DIST(C14, 0, 1, 1) - $D$7</f>
+        <v>194.27457379104379</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="14">
+        <f>$B$7 * _xlfn.NORM.DIST(F13, 0, 1, 1) - F11 * EXP(-$C$7 * $D$3) * _xlfn.NORM.DIST(F14, 0, 1, 1) - $D$7</f>
+        <v>4.1004064234601429</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="14">
+        <f>-$B$7 * _xlfn.NORM.DIST(-I13, 0, 1, 1) + I11 * EXP(-$C$7 * $D$3) * _xlfn.NORM.DIST(-I14, 0, 1, 1) + D7</f>
+        <v>209.65851137279736</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17">
-        <f>1.1375 * B6</f>
-        <v>2997.3466250000001</v>
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>1.6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16">
+        <v>-1.6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16">
+        <v>-1.1429</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18">
-        <f>'Caculation of Parameters'!C23</f>
-        <v>9.5698777777777758E-2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19">
-        <f>(LN($B$6/C17)+($C$6+0.5*C18^2)*$D$3)/(C18*SQRT($D$3))</f>
-        <v>-0.53463287835085349</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20">
-        <f>C19 - C18 * SQRT($D$3)</f>
-        <v>-0.67675621405027953</v>
+        <v>74</v>
+      </c>
+      <c r="C19" s="19">
+        <f>1000 * 'Caculation of Parameters'!C10</f>
+        <v>958.15133618483571</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21">
-        <f>$B$6 * _xlfn.NORM.DIST(C19, 0, 1, 1) - C17 * EXP(-$C$6 * $D$3) * _xlfn.NORM.DIST(C20, 0, 1, 1) - $D$6</f>
-        <v>65.248510073851548</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24">
-        <f>0.875 * B6</f>
-        <v>2305.6512500000003</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25">
-        <f>'Caculation of Parameters'!C29</f>
-        <v>0.14373088888888885</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="19">
+        <f>C16*C15 + F16*F15 + I16*I15 + C19</f>
+        <v>1022.8112913249995</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26">
-        <f>(LN($B$6/C24)+($C$6+0.5*C25^2)*$D$3)/(C25*SQRT($D$3))</f>
-        <v>0.93256879001960902</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27">
-        <f>C26 - C25 * SQRT($D$3)</f>
-        <v>0.71911242363458361</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28">
-        <f>-$B$6 * _xlfn.NORM.DIST(-C26, 0, 1, 1) + C24 * EXP(-$C$6 * $D$3) * _xlfn.NORM.DIST(-C27, 0, 1, 1) + D6</f>
-        <v>58.937611575654216</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
@@ -2496,16 +2590,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31">
-        <f>1000 * 'Caculation of Parameters'!C10</f>
-        <v>958.15133618483571</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2513,10 +2602,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B2:F37"/>
+  <dimension ref="B2:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2572,13 +2661,13 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
@@ -2661,13 +2750,13 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
@@ -2698,11 +2787,11 @@
       </c>
       <c r="E15" s="10">
         <f>INDEX('Implied Volatility'!$C$4:$H$4,0,MATCH('Caculation of Parameters'!$C$3-'Caculation of Parameters'!$B$3, 'Implied Volatility'!$C$2:$H$2,1) - 1)</f>
-        <v>0</v>
+        <v>0.15909000000000001</v>
       </c>
       <c r="F15" s="10">
         <f>($D$16 - $D$3) / ($D$16 - $D$15) * E15</f>
-        <v>0</v>
+        <v>0.12638816666666666</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
@@ -2716,11 +2805,11 @@
       </c>
       <c r="E16" s="10">
         <f>INDEX('Implied Volatility'!$C$4:$H$4,0,MATCH('Caculation of Parameters'!$C$3-'Caculation of Parameters'!$B$3, 'Implied Volatility'!$C$2:$H$2,1) )</f>
-        <v>0</v>
+        <v>0.17415</v>
       </c>
       <c r="F16" s="10">
         <f>($D$3-$D$15) / ($D$16 - $D$15) * $E$16</f>
-        <v>0</v>
+        <v>3.5797500000000031E-2</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -2729,7 +2818,7 @@
       </c>
       <c r="C17" s="10">
         <f>SUM(F15:F16)</f>
-        <v>0</v>
+        <v>0.1621856666666667</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2743,13 +2832,13 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
@@ -2802,7 +2891,7 @@
       </c>
       <c r="F22" s="10">
         <f>($D$3-$D$15) / ($D$16 - $D$15) * $E$16</f>
-        <v>0</v>
+        <v>3.5797500000000031E-2</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -2811,7 +2900,7 @@
       </c>
       <c r="C23" s="10">
         <f>SUM(F21:F22)</f>
-        <v>9.5698777777777758E-2</v>
+        <v>0.13149627777777778</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2825,13 +2914,13 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
@@ -2884,7 +2973,7 @@
       </c>
       <c r="F28" s="10">
         <f>($D$3-$D$15) / ($D$16 - $D$15) * $E$16</f>
-        <v>0</v>
+        <v>3.5797500000000031E-2</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -2893,7 +2982,7 @@
       </c>
       <c r="C29" s="10">
         <f>SUM(F27:F28)</f>
-        <v>0.14373088888888885</v>
+        <v>0.17952838888888889</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2907,15 +2996,13 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6139,19 +6226,19 @@
         <v>100</v>
       </c>
       <c r="D124">
-        <f t="shared" ref="D124:D134" si="20">1.6 *MAX(0, B124-$B$9)</f>
+        <f t="shared" ref="D124:D132" si="20">1.6 *MAX(0, B124-$B$9)</f>
         <v>64</v>
       </c>
       <c r="E124">
-        <f t="shared" ref="E124:E134" si="21">-1.6*MAX(0, B124 - 1.1375 *$B$9)</f>
+        <f t="shared" ref="E124:E132" si="21">-1.6*MAX(0, B124 - 1.1375 *$B$9)</f>
         <v>-42</v>
       </c>
       <c r="F124">
-        <f t="shared" ref="F124:F134" si="22">-1.1429 *MAX(0, 0.875*$B$9 - B124)</f>
+        <f t="shared" ref="F124:F132" si="22">-1.1429 *MAX(0, 0.875*$B$9 - B124)</f>
         <v>0</v>
       </c>
       <c r="G124">
-        <f t="shared" ref="G124:G134" si="23">SUM(C124:F124)</f>
+        <f t="shared" ref="G124:G132" si="23">SUM(C124:F124)</f>
         <v>122</v>
       </c>
     </row>
@@ -6160,7 +6247,7 @@
         <v>1.4125000000000001</v>
       </c>
       <c r="B125">
-        <f t="shared" ref="B125:B134" si="24">A125*$B$9</f>
+        <f t="shared" ref="B125:B132" si="24">A125*$B$9</f>
         <v>141.25</v>
       </c>
       <c r="C125">
@@ -6388,16 +6475,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -6407,301 +6497,508 @@
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43100</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <f>AVERAGE(C14,C26)</f>
         <v>4.6135000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="13">
+        <f>EXP(LN('Term Structure'!$G$4) / (('Term Structure'!$A$4 - 'Term Structure'!$A$2) / 360) * ((A2 - 'Term Structure'!$A$2) / 360))</f>
+        <v>0.99881040663472931</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>4.608011811009324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>43131</v>
       </c>
       <c r="B3">
         <v>26</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>0.50600000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="13">
+        <f>EXP(LN('Term Structure'!$G$4) / (('Term Structure'!$A$4 - 'Term Structure'!$A$2) / 360) * ((A3 - 'Term Structure'!$A$2) / 360))</f>
+        <v>0.99758264681280484</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E27" si="0">C3*D3</f>
+        <v>0.50477681928727924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>43159</v>
       </c>
       <c r="B4">
         <v>164</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>5.7629999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="13">
+        <f>EXP(LN('Term Structure'!$G$4) / (('Term Structure'!$A$4 - 'Term Structure'!$A$2) / 360) * ((A4 - 'Term Structure'!$A$2) / 360))</f>
+        <v>0.9964749996895429</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.742685423210836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>43190</v>
       </c>
       <c r="B5">
         <v>170</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>4.0049999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f>((A5-'Term Structure'!$A$5)/360)/(('Term Structure'!$A$6-'Term Structure'!$A$5)/360)*'Term Structure'!$G$6+(('Term Structure'!$A$6-Dividend!A5)/360)/ (('Term Structure'!$A$6-'Term Structure'!$A$5)/360) * 'Term Structure'!$G$5</f>
+        <v>0.99500267617874183</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3.984985718095861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>43220</v>
       </c>
       <c r="B6">
         <v>80</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>3.1739999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f>((A6-'Term Structure'!$A$5)/360)/(('Term Structure'!$A$6-'Term Structure'!$A$5)/360)*'Term Structure'!$G$6+(('Term Structure'!$A$6-Dividend!A6)/360)/ (('Term Structure'!$A$6-'Term Structure'!$A$5)/360) * 'Term Structure'!$G$5</f>
+        <v>0.9935784028512934</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.1536178506500052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>43251</v>
       </c>
       <c r="B7">
         <v>182</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>6.18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f>((A7-'Term Structure'!$A$5)/360)/(('Term Structure'!$A$6-'Term Structure'!$A$5)/360)*'Term Structure'!$G$6+(('Term Structure'!$A$6-Dividend!A7)/360)/ (('Term Structure'!$A$6-'Term Structure'!$A$5)/360) * 'Term Structure'!$G$5</f>
+        <v>0.99210665374626328</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6.1312191201519068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>43281</v>
       </c>
       <c r="B8">
         <v>157</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>3.9140000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f>((A8 - 'Term Structure'!$A$6) / 360) / (('Term Structure'!$A$7 - 'Term Structure'!$A$6) / 360) * 'Term Structure'!$G$7 + (('Term Structure'!$A$7 - Dividend!A8) / 360) / (('Term Structure'!$A$7 - 'Term Structure'!$A$6) / 360) * 'Term Structure'!$G$6</f>
+        <v>0.99064239498679763</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.877374333978326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>43312</v>
       </c>
       <c r="B9">
         <v>75</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>3.0510000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f>((A9 - 'Term Structure'!$A$6) / 360) / (('Term Structure'!$A$7 - 'Term Structure'!$A$6) / 360) * 'Term Structure'!$G$7 + (('Term Structure'!$A$7 - Dividend!A9) / 360) / (('Term Structure'!$A$7 - 'Term Structure'!$A$6) / 360) * 'Term Structure'!$G$6</f>
+        <v>0.98904669104251419</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.0175814543707111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>43343</v>
       </c>
       <c r="B10">
         <v>182</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>6.0309999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f>((A10 - 'Term Structure'!$A$6) / 360) / (('Term Structure'!$A$7 - 'Term Structure'!$A$6) / 360) * 'Term Structure'!$G$7 + (('Term Structure'!$A$7 - Dividend!A10) / 360) / (('Term Structure'!$A$7 - 'Term Structure'!$A$6) / 360) * 'Term Structure'!$G$6</f>
+        <v>0.98745098709823054</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.955316903189428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>43373</v>
       </c>
       <c r="B11">
         <v>151</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>3.895</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f>((A11 - 'Term Structure'!$A$7) / 360) / (('Term Structure'!$A$8 - 'Term Structure'!$A$7) / 360) * 'Term Structure'!$G$8 + (('Term Structure'!$A$8 - Dividend!A11) / 360) / (('Term Structure'!$A$8 - 'Term Structure'!$A$7) / 360) * 'Term Structure'!$G$7</f>
+        <v>0.98588143571522613</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3.8400081921108056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>43404</v>
       </c>
       <c r="B12">
         <v>76</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>3.0790000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f>((A12 - 'Term Structure'!$A$7) / 360) / (('Term Structure'!$A$8 - 'Term Structure'!$A$7) / 360) * 'Term Structure'!$G$8 + (('Term Structure'!$A$8 - Dividend!A12) / 360) / (('Term Structure'!$A$8 - 'Term Structure'!$A$7) / 360) * 'Term Structure'!$G$7</f>
+        <v>0.98421437044870386</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.0303960466115591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>43434</v>
       </c>
       <c r="B13">
         <v>186</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>6.4569999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f>((A13 - 'Term Structure'!$A$7) / 360) / (('Term Structure'!$A$8 - 'Term Structure'!$A$7) / 360) * 'Term Structure'!$G$8 + (('Term Structure'!$A$8 - Dividend!A13) / 360) / (('Term Structure'!$A$8 - 'Term Structure'!$A$7) / 360) * 'Term Structure'!$G$7</f>
+        <v>0.98260108148110159</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6.3446551831234732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>43465</v>
       </c>
       <c r="B14">
         <v>158</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>4.2160000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f>((Dividend!A14 - 'Term Structure'!$A$8) / 360) / (('Term Structure'!$A$9 - 'Term Structure'!$A$8) / 360) * 'Term Structure'!$G$9 + (('Term Structure'!$A$9 - Dividend!A14) / 360) / (('Term Structure'!$A$9 - 'Term Structure'!$A$8) / 360) * 'Term Structure'!$G$8</f>
+        <v>0.98091018061366553</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4.1355173214672138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>43496</v>
       </c>
       <c r="B15">
         <v>79</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>3.5579999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f>((Dividend!A15 - 'Term Structure'!$A$8) / 360) / (('Term Structure'!$A$9 - 'Term Structure'!$A$8) / 360) * 'Term Structure'!$G$9 + (('Term Structure'!$A$9 - Dividend!A15) / 360) / (('Term Structure'!$A$9 - 'Term Structure'!$A$8) / 360) * 'Term Structure'!$G$8</f>
+        <v>0.97918154004478319</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3.4839279194793384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>43524</v>
       </c>
       <c r="B16">
         <v>167</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>6.016</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f>((Dividend!A16 - 'Term Structure'!$A$8) / 360) / (('Term Structure'!$A$9 - 'Term Structure'!$A$8) / 360) * 'Term Structure'!$G$9 + (('Term Structure'!$A$9 - Dividend!A16) / 360) / (('Term Structure'!$A$9 - 'Term Structure'!$A$8) / 360) * 'Term Structure'!$G$8</f>
+        <v>0.97762018727288924</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5.8813630466337017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>43555</v>
       </c>
       <c r="B17">
         <v>162</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>3.968</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f>((A17 - 'Term Structure'!$A$9) / 360) / (('Term Structure'!$A$10 - 'Term Structure'!$A$9) / 360) * 'Term Structure'!$G$10 + (('Term Structure'!$A$10 - Dividend!A17) / 360) / (('Term Structure'!$A$10 - 'Term Structure'!$A$9) / 360) * 'Term Structure'!$G$9</f>
+        <v>0.97587901823591283</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3.8722879443601022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>43585</v>
       </c>
       <c r="B18">
         <v>78</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>3.2189999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f>((A18 - 'Term Structure'!$A$9) / 360) / (('Term Structure'!$A$10 - 'Term Structure'!$A$9) / 360) * 'Term Structure'!$G$10 + (('Term Structure'!$A$10 - Dividend!A18) / 360) / (('Term Structure'!$A$10 - 'Term Structure'!$A$9) / 360) * 'Term Structure'!$G$9</f>
+        <v>0.97417197171667946</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3.1358595769559909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>43616</v>
       </c>
       <c r="B19">
         <v>182</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>6.4960000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f>((A19 - 'Term Structure'!$A$9) / 360) / (('Term Structure'!$A$10 - 'Term Structure'!$A$9) / 360) * 'Term Structure'!$G$10 + (('Term Structure'!$A$10 - Dividend!A19) / 360) / (('Term Structure'!$A$10 - 'Term Structure'!$A$9) / 360) * 'Term Structure'!$G$9</f>
+        <v>0.97240802364680512</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>6.3167625216096468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>43646</v>
       </c>
       <c r="B20">
         <v>155</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f>((A20 - 'Term Structure'!$A$10) / 360) / (('Term Structure'!$A$11 - 'Term Structure'!$A$10) / 360) * 'Term Structure'!$G$11 + (('Term Structure'!$A$11 - Dividend!A20) / 360) / (('Term Structure'!$A$11 - 'Term Structure'!$A$10) / 360) * 'Term Structure'!$G$10</f>
+        <v>0.97069908323224074</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4.2710759662218596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>43677</v>
       </c>
       <c r="B21">
         <v>80</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>3.2160000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f>((A21 - 'Term Structure'!$A$10) / 360) / (('Term Structure'!$A$11 - 'Term Structure'!$A$10) / 360) * 'Term Structure'!$G$11 + (('Term Structure'!$A$11 - Dividend!A21) / 360) / (('Term Structure'!$A$11 - 'Term Structure'!$A$10) / 360) * 'Term Structure'!$G$10</f>
+        <v>0.96892979782097877</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>3.1160782297922678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>43708</v>
       </c>
       <c r="B22">
         <v>176</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>6.4189999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f>((A22 - 'Term Structure'!$A$10) / 360) / (('Term Structure'!$A$11 - 'Term Structure'!$A$10) / 360) * 'Term Structure'!$G$11 + (('Term Structure'!$A$11 - Dividend!A22) / 360) / (('Term Structure'!$A$11 - 'Term Structure'!$A$10) / 360) * 'Term Structure'!$G$10</f>
+        <v>0.9671605124097169</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>6.2082033291579721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>43738</v>
       </c>
       <c r="B23">
         <v>157</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>4.3239999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f>((A23 - 'Term Structure'!$A$10) / 360) / (('Term Structure'!$A$11 - 'Term Structure'!$A$10) / 360) * 'Term Structure'!$G$11 + (('Term Structure'!$A$11 - Dividend!A23) / 360) / (('Term Structure'!$A$11 - 'Term Structure'!$A$10) / 360) * 'Term Structure'!$G$10</f>
+        <v>0.96544830072139876</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4.1745984523193282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>43769</v>
       </c>
       <c r="B24">
         <v>76</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>3.2559999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f>((A24 - 'Term Structure'!$A$10) / 360) / (('Term Structure'!$A$11 - 'Term Structure'!$A$10) / 360) * 'Term Structure'!$G$11 + (('Term Structure'!$A$11 - Dividend!A24) / 360) / (('Term Structure'!$A$11 - 'Term Structure'!$A$10) / 360) * 'Term Structure'!$G$10</f>
+        <v>0.96367901531013678</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3.1377388738498051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>43799</v>
       </c>
       <c r="B25">
         <v>181</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>6.5919999999999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f>((A25 - 'Term Structure'!$A$10) / 360) / (('Term Structure'!$A$11 - 'Term Structure'!$A$10) / 360) * 'Term Structure'!$G$11 + (('Term Structure'!$A$11 - Dividend!A25) / 360) / (('Term Structure'!$A$11 - 'Term Structure'!$A$10) / 360) * 'Term Structure'!$G$10</f>
+        <v>0.96196680362181863</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>6.3412851694750278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>43830</v>
       </c>
       <c r="B26">
         <v>160</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>5.0110000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f xml:space="preserve"> ((A26 - 'Term Structure'!$A$11) / 360) / (('Term Structure'!$A$12 - 'Term Structure'!$A$11) / 360) * 'Term Structure'!$G$12 + (('Term Structure'!$A$12 - Dividend!A26) / 360) / (('Term Structure'!$A$12 - 'Term Structure'!$A$11) / 360) * 'Term Structure'!$G$11</f>
+        <v>0.96015172551745165</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>4.81132029656795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>43861</v>
       </c>
       <c r="B27">
         <v>76</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>3.085</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>43890</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" s="12">
-        <v>7.9000000000000001E-2</v>
-      </c>
+      <c r="D27">
+        <f xml:space="preserve"> ((A27 - 'Term Structure'!$A$11) / 360) / (('Term Structure'!$A$12 - 'Term Structure'!$A$11) / 360) * 'Term Structure'!$G$12 + (('Term Structure'!$A$12 - Dividend!A27) / 360) / (('Term Structure'!$A$12 - 'Term Structure'!$A$11) / 360) * 'Term Structure'!$G$11</f>
+        <v>0.95832784112594904</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2.9564413898735529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="C28" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6711,26 +7008,29 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <f>'Caculation of Parameters'!B3</f>
         <v>43070</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -6756,7 +7056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -6782,8 +7082,9 @@
       <c r="H4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -6810,7 +7111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -6837,7 +7138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -6864,7 +7165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -6891,7 +7192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -6918,7 +7219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -6945,7 +7246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6972,7 +7273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -6999,7 +7300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
@@ -7026,7 +7327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -7053,7 +7354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -7080,7 +7381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -7414,9 +7715,7 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7532,21 +7831,45 @@
       <c r="B4">
         <v>100</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="C4" s="2">
+        <v>8.9849999999999999E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1211</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.13996</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.15065000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.15909000000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.17415</v>
+      </c>
       <c r="J4">
         <v>100</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="K4" s="2">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.11703</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.14316000000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.14956</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.16511000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -7650,12 +7973,24 @@
       <c r="B10">
         <v>100</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="C10" s="2">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.11703</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.14316000000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.14956</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.16511000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11">

--- a/Homework/HW1/FIN514.xlsx
+++ b/Homework/HW1/FIN514.xlsx
@@ -2310,9 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Homework/HW1/FIN514.xlsx
+++ b/Homework/HW1/FIN514.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Main Result" sheetId="6" r:id="rId1"/>
-    <sheet name="Caculation of Parameters" sheetId="5" r:id="rId2"/>
-    <sheet name="Replicating Portfolio" sheetId="1" r:id="rId3"/>
+    <sheet name="Replicating Portfolio" sheetId="1" r:id="rId2"/>
+    <sheet name="Caculation of Parameters" sheetId="5" r:id="rId3"/>
     <sheet name="Dividend" sheetId="2" r:id="rId4"/>
     <sheet name="Term Structure" sheetId="3" r:id="rId5"/>
     <sheet name="Implied Volatility" sheetId="4" r:id="rId6"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="102">
   <si>
     <t>Replicating Portfolio</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Since forecasted dividends seems have seasonality, dividends at Dec 2018 is calculated by taking average of all dividends at December from the data.</t>
   </si>
   <si>
-    <t>Data which does not exist for exact maturity was calculated using linear interpolation.</t>
-  </si>
-  <si>
     <t>Present Value</t>
   </si>
   <si>
@@ -304,10 +301,43 @@
     <t>Price of notes</t>
   </si>
   <si>
-    <t>Assumptions</t>
-  </si>
-  <si>
     <t>*x1 and x2 stands for the point which is greatest lower bound (least upper bound) used for linear interpolation</t>
+  </si>
+  <si>
+    <t>(a) Valuation</t>
+  </si>
+  <si>
+    <t>If the value of S&amp;P 500 on 2/3/2020 were 3111.12, since the value is approximately 117.75% of initial value of S&amp;P 500 index, an investor would receive 1,220 dollars. Therefore, the actual realized rate of return for investor is 12%.</t>
+  </si>
+  <si>
+    <t>With hindsight, it was not a good investment because maximum return of the note is capped. If the investor invested just in S&amp;P 500 index, realized rate of return would be approximately 17.75% which is higher than the return of the notes.</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>b) Assumptions</t>
+  </si>
+  <si>
+    <t>By construction of the following portfolio, payoff structure of the notes can be replicated</t>
+  </si>
+  <si>
+    <t>2. 1.6 purchased SPX calls expiring on 3 Feb, 2020 with strike price 2642.22 (Call option 1)</t>
+  </si>
+  <si>
+    <t>3. 1.6 written SPX calls expiring on 3 Feb, 2020 with strike price 1.1375 * 2642.22 (Call option 2)</t>
+  </si>
+  <si>
+    <t>4. 1.1429 written SPX puts expiring on 3 Feb, 2020 with strike price 0.875 * 2642.22 (Put option)</t>
+  </si>
+  <si>
+    <t>Data which does not exist for exact maturity date was calculated using linear interpolation.</t>
+  </si>
+  <si>
+    <t>*More details are on "Replicating Portfolio" tab.</t>
+  </si>
+  <si>
+    <t>The price above is slightly different to the price valued by J.P Morgan. I think it is because the difference of model or parameters(especially dividends).</t>
   </si>
 </sst>
 </file>
@@ -415,9 +445,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -433,6 +460,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="blp_column_header" xfId="1"/>
@@ -1298,11 +1328,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1971451184"/>
-        <c:axId val="-1971448864"/>
+        <c:axId val="1124322016"/>
+        <c:axId val="1124455824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1971451184"/>
+        <c:axId val="1124322016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1375,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1971448864"/>
+        <c:crossAx val="1124455824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1354,7 +1384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1971448864"/>
+        <c:axId val="1124455824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1971451184"/>
+        <c:crossAx val="1124322016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2308,12 +2338,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I30"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
@@ -2321,283 +2352,3795 @@
     <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="16">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="15">
         <v>43070</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C11" s="15">
         <v>43864</v>
       </c>
-      <c r="D3" s="17">
-        <f>(C3- B3) / 360</f>
+      <c r="D11" s="16">
+        <f>(C11- B11) / 360</f>
         <v>2.2055555555555557</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="18">
-        <v>2635.03</v>
-      </c>
-      <c r="C7" s="17">
-        <f>-LN('Caculation of Parameters'!C10) / 'Main Result'!D3</f>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="17">
+        <v>2642.22</v>
+      </c>
+      <c r="C15" s="16">
+        <f>-LN('Caculation of Parameters'!C10) / 'Main Result'!D11</f>
         <v>1.9382664115765454E-2</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D15" s="16">
         <f>SUM(Dividend!E2:E27)</f>
         <v>112.03308889355326</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E18" t="s">
         <v>75</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="14">
-        <f>$B$7</f>
-        <v>2635.03</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C19" s="13">
+        <f>$B$15</f>
+        <v>2642.22</v>
+      </c>
+      <c r="E19" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="14">
-        <f>1.1375 * $B$7</f>
-        <v>2997.3466250000001</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F19" s="13">
+        <f>1.1375 * $B$15</f>
+        <v>3005.5252499999997</v>
+      </c>
+      <c r="H19" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="14">
-        <f>0.875 * $B$7</f>
-        <v>2305.6512500000003</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="I19" s="13">
+        <f>0.875 * $B$15</f>
+        <v>2311.9424999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C20" s="13">
         <f>'Caculation of Parameters'!C17</f>
         <v>0.1621856666666667</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F20" s="13">
         <f>'Caculation of Parameters'!C23</f>
         <v>0.13149627777777778</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H20" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I20" s="13">
         <f>'Caculation of Parameters'!C29</f>
         <v>0.17952838888888889</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="14">
-        <f>(LN($B$7/C11)+($C$7+0.5*C12^2)*$D$3)/(C12*SQRT($D$3))</f>
+      <c r="C21" s="13">
+        <f>(LN($B$15/C19)+($C$15+0.5*C20^2)*$D$11)/(C20*SQRT($D$11))</f>
         <v>0.29791620649282535</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E21" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="14">
-        <f>(LN($B$7/F11)+($C$7+0.5*F12^2)*$D$3)/(F12*SQRT($D$3))</f>
+      <c r="F21" s="13">
+        <f>(LN($B$15/F19)+($C$15+0.5*F20^2)*$D$11)/(F20*SQRT($D$11))</f>
         <v>-0.34316178042659928</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H21" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="14">
-        <f>(LN($B$7/I11)+($C$7+0.5*I12^2)*$D$3)/(I12*SQRT($D$3))</f>
-        <v>0.79447992824185787</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="I21" s="13">
+        <f>(LN($B$15/I19)+($C$15+0.5*I20^2)*$D$11)/(I20*SQRT($D$11))</f>
+        <v>0.79447992824185854</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="14">
-        <f>C13 - C12 * SQRT($D$3)</f>
+      <c r="C22" s="13">
+        <f>C21 - C20 * SQRT($D$11)</f>
         <v>5.7052441201828952E-2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E22" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="14">
-        <f>F13 - F12 * SQRT($D$3)</f>
+      <c r="F22" s="13">
+        <f>F21 - F20 * SQRT($D$11)</f>
         <v>-0.53844838767286018</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H22" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="14">
-        <f>I13 - I12 * SQRT($D$3)</f>
-        <v>0.52786029030999759</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="I22" s="13">
+        <f>I21 - I20 * SQRT($D$11)</f>
+        <v>0.52786029030999826</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="14">
-        <f>$B$7 * _xlfn.NORM.DIST(C13, 0, 1, 1) - C11 * EXP(-$C$7 * $D$3) * _xlfn.NORM.DIST(C14, 0, 1, 1) - $D$7</f>
-        <v>194.27457379104379</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C23" s="13">
+        <f>$B$15 * _xlfn.NORM.DIST(C21, 0, 1, 1) - C19 * EXP(-$C$15 * $D$11) * _xlfn.NORM.DIST(C22, 0, 1, 1) - $D$15</f>
+        <v>195.11037152188663</v>
+      </c>
+      <c r="E23" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="14">
-        <f>$B$7 * _xlfn.NORM.DIST(F13, 0, 1, 1) - F11 * EXP(-$C$7 * $D$3) * _xlfn.NORM.DIST(F14, 0, 1, 1) - $D$7</f>
-        <v>4.1004064234601429</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="F23" s="13">
+        <f>$B$15 * _xlfn.NORM.DIST(F21, 0, 1, 1) - F19 * EXP(-$C$15 * $D$11) * _xlfn.NORM.DIST(F22, 0, 1, 1) - $D$15</f>
+        <v>4.4172907971975093</v>
+      </c>
+      <c r="H23" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="14">
-        <f>-$B$7 * _xlfn.NORM.DIST(-I13, 0, 1, 1) + I11 * EXP(-$C$7 * $D$3) * _xlfn.NORM.DIST(-I14, 0, 1, 1) + D7</f>
-        <v>209.65851137279736</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16">
+      <c r="I23" s="13">
+        <f>-$B$15 * _xlfn.NORM.DIST(-I21, 0, 1, 1) + I19 * EXP(-$C$15 * $D$11) * _xlfn.NORM.DIST(-I22, 0, 1, 1) + D15</f>
+        <v>209.92489421763247</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24">
         <v>1.6</v>
       </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16">
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24">
         <v>-1.6</v>
       </c>
-      <c r="H16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16">
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
         <v>-1.1429</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C27" s="18">
         <f>1000 * 'Caculation of Parameters'!C10</f>
         <v>958.15133618483571</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="19">
-        <f>C16*C15 + F16*F15 + I16*I15 + C19</f>
-        <v>1022.8112913249995</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="18">
+        <f>C24*C23 + F24*F23 + I24*I23 + C27</f>
+        <v>1023.3371037430062</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A2:G132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f>A12*$B$9</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <f>1.6 *MAX(0, B12-$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>-1.6*MAX(0, B12 - 1.1375 *$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>-1.1429 *MAX(0, 0.875*$B$9 - B12)</f>
+        <v>-100.00375</v>
+      </c>
+      <c r="G12">
+        <f>SUM(C12:F12)</f>
+        <v>-3.7499999999965894E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="B13">
+        <f>A13*$B$9</f>
+        <v>1.25</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D52" si="0">1.6 *MAX(0, B13-$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E52" si="1">-1.6*MAX(0, B13 - 1.1375 *$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F52" si="2">-1.1429 *MAX(0, 0.875*$B$9 - B13)</f>
+        <v>-98.575125</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G52" si="3">SUM(C13:F13)</f>
+        <v>1.4248750000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B52" si="4">A14*$B$9</f>
+        <v>2.5</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>-97.146500000000003</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>2.8534999999999968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>-95.717875000000006</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>4.2821249999999935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.05</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>-94.289249999999996</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>5.7107500000000044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>-92.860624999999999</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>7.1393750000000011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>-91.432000000000002</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>8.5679999999999978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>8.75</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>-90.003375000000005</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>9.9966249999999945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.1</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>-88.574750000000009</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>11.425249999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.1125</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>11.25</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>-87.146124999999998</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>12.853875000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.125</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>-85.717500000000001</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>14.282499999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>13.750000000000002</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>-84.288875000000004</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>15.711124999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.15</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>-82.860250000000008</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>17.139749999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>16.25</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>-81.431624999999997</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>18.568375000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>-80.003</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>19.997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.1875</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="4"/>
+        <v>18.75</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>-78.574375000000003</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>21.425624999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.2</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>-77.145750000000007</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>22.854249999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="4"/>
+        <v>21.25</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>-75.717124999999996</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>24.282875000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="4"/>
+        <v>22.5</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>-74.288499999999999</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>25.711500000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="4"/>
+        <v>23.75</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>-72.859875000000002</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>27.140124999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.25</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>-71.431250000000006</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>28.568749999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="4"/>
+        <v>26.25</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>-70.002624999999995</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>29.997375000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>-68.573999999999998</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>31.426000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>28.749999999999996</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>-67.145375000000001</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>32.854624999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.3</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>-65.716750000000005</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>34.283249999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.3125</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>31.25</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>-64.288125000000008</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>35.711874999999992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>32.5</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>-62.859500000000004</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>37.140499999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>33.75</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>-61.430875</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>38.569125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.35</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>-60.002250000000004</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>39.997749999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>36.25</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>-58.573625</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>41.426375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.375</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>37.5</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>-57.145000000000003</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>42.854999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>38.75</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>-55.716374999999999</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>44.283625000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.4</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>-54.287750000000003</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>45.712249999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>41.25</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>-52.859124999999999</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>47.140875000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>42.5</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>-51.430500000000002</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>48.569499999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.4375</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>43.75</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>-50.001874999999998</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>49.998125000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.45</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>-48.573250000000002</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>51.426749999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>46.25</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>-47.144624999999998</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>52.855375000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>47.5</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>-45.716000000000001</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>54.283999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>48.75</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>-44.287375000000004</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>55.712624999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>-42.858750000000001</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>57.141249999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="B53">
+        <f>A53*$B$9</f>
+        <v>51.249999999999993</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <f>1.6 *MAX(0, B53-$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>-1.6*MAX(0, B53 - 1.1375 *$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>-1.1429 *MAX(0, 0.875*$B$9 - B53)</f>
+        <v>-41.430125000000011</v>
+      </c>
+      <c r="G53">
+        <f>SUM(C53:F53)</f>
+        <v>58.569874999999989</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="B54">
+        <f>A54*$B$9</f>
+        <v>52.5</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:D64" si="5">1.6 *MAX(0, B54-$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54:E64" si="6">-1.6*MAX(0, B54 - 1.1375 *$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54:F64" si="7">-1.1429 *MAX(0, 0.875*$B$9 - B54)</f>
+        <v>-40.0015</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ref="G54:G64" si="8">SUM(C54:F54)</f>
+        <v>59.9985</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55:B64" si="9">A55*$B$9</f>
+        <v>53.75</v>
+      </c>
+      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="7"/>
+        <v>-38.572875000000003</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="8"/>
+        <v>61.427124999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="9"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="7"/>
+        <v>-37.144249999999992</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="8"/>
+        <v>62.855750000000008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0.5625</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="9"/>
+        <v>56.25</v>
+      </c>
+      <c r="C57">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="7"/>
+        <v>-35.715625000000003</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="8"/>
+        <v>64.284374999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="9"/>
+        <v>57.499999999999993</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="7"/>
+        <v>-34.287000000000006</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="8"/>
+        <v>65.712999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="9"/>
+        <v>58.75</v>
+      </c>
+      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="7"/>
+        <v>-32.858375000000002</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="8"/>
+        <v>67.141625000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0.6</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="7"/>
+        <v>-31.429750000000002</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="8"/>
+        <v>68.570250000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="9"/>
+        <v>61.250000000000007</v>
+      </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="7"/>
+        <v>-30.001124999999991</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="8"/>
+        <v>69.998875000000012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0.625</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="9"/>
+        <v>62.5</v>
+      </c>
+      <c r="C62">
+        <v>100</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="7"/>
+        <v>-28.572500000000002</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="8"/>
+        <v>71.427499999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="9"/>
+        <v>63.749999999999993</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="7"/>
+        <v>-27.143875000000008</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="8"/>
+        <v>72.856124999999992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>0.65</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>100</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="7"/>
+        <v>-25.715250000000001</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="8"/>
+        <v>74.284750000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="B65">
+        <f>A65*$B$9</f>
+        <v>66.25</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="D65">
+        <f>1.6 *MAX(0, B65-$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f>-1.6*MAX(0, B65 - 1.1375 *$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>-1.1429 *MAX(0, 0.875*$B$9 - B65)</f>
+        <v>-24.286625000000001</v>
+      </c>
+      <c r="G65">
+        <f>SUM(C65:F65)</f>
+        <v>75.713374999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="B66">
+        <f>A66*$B$9</f>
+        <v>67.5</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D81" si="10">1.6 *MAX(0, B66-$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E81" si="11">-1.6*MAX(0, B66 - 1.1375 *$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:F81" si="12">-1.1429 *MAX(0, 0.875*$B$9 - B66)</f>
+        <v>-22.858000000000001</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66:G81" si="13">SUM(C66:F66)</f>
+        <v>77.141999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0.6875</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B81" si="14">A67*$B$9</f>
+        <v>68.75</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="12"/>
+        <v>-21.429375</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="13"/>
+        <v>78.570625000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0.7</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="12"/>
+        <v>-20.00075</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="13"/>
+        <v>79.999250000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="14"/>
+        <v>71.25</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="12"/>
+        <v>-18.572125</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="13"/>
+        <v>81.427875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="14"/>
+        <v>72.5</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="12"/>
+        <v>-17.1435</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="13"/>
+        <v>82.856499999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="14"/>
+        <v>73.75</v>
+      </c>
+      <c r="C71">
+        <v>100</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="12"/>
+        <v>-15.714875000000001</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="13"/>
+        <v>84.285124999999994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>0.75</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="C72">
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="12"/>
+        <v>-14.286250000000001</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="13"/>
+        <v>85.713750000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="14"/>
+        <v>76.25</v>
+      </c>
+      <c r="C73">
+        <v>100</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="12"/>
+        <v>-12.857625000000001</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="13"/>
+        <v>87.142375000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="14"/>
+        <v>77.5</v>
+      </c>
+      <c r="C74">
+        <v>100</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="12"/>
+        <v>-11.429</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="13"/>
+        <v>88.570999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="14"/>
+        <v>78.75</v>
+      </c>
+      <c r="C75">
+        <v>100</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="12"/>
+        <v>-10.000375</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="13"/>
+        <v>89.999624999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>0.8</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>100</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="12"/>
+        <v>-8.5717499999999998</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="13"/>
+        <v>91.428250000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>0.8125</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="14"/>
+        <v>81.25</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="12"/>
+        <v>-7.1431250000000004</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="13"/>
+        <v>92.856875000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="14"/>
+        <v>82.5</v>
+      </c>
+      <c r="C78">
+        <v>100</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="12"/>
+        <v>-5.7145000000000001</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="13"/>
+        <v>94.285499999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="14"/>
+        <v>83.75</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="12"/>
+        <v>-4.2858749999999999</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="13"/>
+        <v>95.714124999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>0.85</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="14"/>
+        <v>85</v>
+      </c>
+      <c r="C80">
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="12"/>
+        <v>-2.8572500000000001</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="13"/>
+        <v>97.142750000000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="14"/>
+        <v>86.25</v>
+      </c>
+      <c r="C81">
+        <v>100</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="12"/>
+        <v>-1.428625</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="13"/>
+        <v>98.571375000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>0.875</v>
+      </c>
+      <c r="B82">
+        <f>A82*$B$9</f>
+        <v>87.5</v>
+      </c>
+      <c r="C82">
+        <v>100</v>
+      </c>
+      <c r="D82">
+        <f>1.6 *MAX(0, B82-$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f>-1.6*MAX(0, B82 - 1.1375 *$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f>-1.1429 *MAX(0, 0.875*$B$9 - B82)</f>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f>SUM(C82:F82)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="B83">
+        <f>A83*$B$9</f>
+        <v>88.75</v>
+      </c>
+      <c r="C83">
+        <v>100</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ref="D83:D122" si="15">1.6 *MAX(0, B83-$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ref="E83:E122" si="16">-1.6*MAX(0, B83 - 1.1375 *$B$9)</f>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83:F122" si="17">-1.1429 *MAX(0, 0.875*$B$9 - B83)</f>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ref="G83:G122" si="18">SUM(C83:F83)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>0.9</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ref="B84:B122" si="19">A84*$B$9</f>
+        <v>90</v>
+      </c>
+      <c r="C84">
+        <v>100</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="19"/>
+        <v>91.25</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="19"/>
+        <v>92.5</v>
+      </c>
+      <c r="C86">
+        <v>100</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>0.9375</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="19"/>
+        <v>93.75</v>
+      </c>
+      <c r="C87">
+        <v>100</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>0.95</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="19"/>
+        <v>95</v>
+      </c>
+      <c r="C88">
+        <v>100</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="19"/>
+        <v>96.25</v>
+      </c>
+      <c r="C89">
+        <v>100</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="19"/>
+        <v>97.5</v>
+      </c>
+      <c r="C90">
+        <v>100</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="19"/>
+        <v>98.75</v>
+      </c>
+      <c r="C91">
+        <v>100</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="C92">
+        <v>100</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1.0125</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="19"/>
+        <v>101.25</v>
+      </c>
+      <c r="C93">
+        <v>100</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="18"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="19"/>
+        <v>102.49999999999999</v>
+      </c>
+      <c r="C94">
+        <v>100</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="15"/>
+        <v>3.9999999999999774</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="18"/>
+        <v>103.99999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1.0375000000000001</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="19"/>
+        <v>103.75000000000001</v>
+      </c>
+      <c r="C95">
+        <v>100</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="15"/>
+        <v>6.0000000000000231</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="18"/>
+        <v>106.00000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1.05</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="19"/>
+        <v>105</v>
+      </c>
+      <c r="C96">
+        <v>100</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="18"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1.0625</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="19"/>
+        <v>106.25</v>
+      </c>
+      <c r="C97">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="18"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1.075</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="19"/>
+        <v>107.5</v>
+      </c>
+      <c r="C98">
+        <v>100</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="18"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1.0874999999999999</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="19"/>
+        <v>108.74999999999999</v>
+      </c>
+      <c r="C99">
+        <v>100</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="15"/>
+        <v>13.999999999999979</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="18"/>
+        <v>113.99999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="19"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="15"/>
+        <v>16.000000000000025</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="18"/>
+        <v>116.00000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1.1125</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="19"/>
+        <v>111.25</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="18"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1.125</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="19"/>
+        <v>112.5</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="18"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1.1375</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="19"/>
+        <v>113.75</v>
+      </c>
+      <c r="C103">
+        <v>100</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="19"/>
+        <v>114.99999999999999</v>
+      </c>
+      <c r="C104">
+        <v>100</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="15"/>
+        <v>23.999999999999979</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="16"/>
+        <v>-1.9999999999999774</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1.1625000000000001</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="19"/>
+        <v>116.25000000000001</v>
+      </c>
+      <c r="C105">
+        <v>100</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="15"/>
+        <v>26.000000000000025</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="16"/>
+        <v>-4.0000000000000231</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1.175</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="19"/>
+        <v>117.5</v>
+      </c>
+      <c r="C106">
+        <v>100</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="16"/>
+        <v>-6</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1.1875</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="19"/>
+        <v>118.75</v>
+      </c>
+      <c r="C107">
+        <v>100</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="16"/>
+        <v>-8</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1.2</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="19"/>
+        <v>120</v>
+      </c>
+      <c r="C108">
+        <v>100</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1.2124999999999999</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="19"/>
+        <v>121.24999999999999</v>
+      </c>
+      <c r="C109">
+        <v>100</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="15"/>
+        <v>33.999999999999979</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="16"/>
+        <v>-11.999999999999979</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="19"/>
+        <v>122.50000000000001</v>
+      </c>
+      <c r="C110">
+        <v>100</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="15"/>
+        <v>36.000000000000021</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="16"/>
+        <v>-14.000000000000023</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1.2375</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="19"/>
+        <v>123.75</v>
+      </c>
+      <c r="C111">
+        <v>100</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="16"/>
+        <v>-16</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1.25</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="19"/>
+        <v>125</v>
+      </c>
+      <c r="C112">
+        <v>100</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="16"/>
+        <v>-18</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1.2625</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="19"/>
+        <v>126.25</v>
+      </c>
+      <c r="C113">
+        <v>100</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="15"/>
+        <v>42</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="16"/>
+        <v>-20</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="19"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="C114">
+        <v>100</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="15"/>
+        <v>43.999999999999979</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="16"/>
+        <v>-21.999999999999979</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1.2875000000000001</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="19"/>
+        <v>128.75</v>
+      </c>
+      <c r="C115">
+        <v>100</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="15"/>
+        <v>46</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="16"/>
+        <v>-24</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1.3</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="19"/>
+        <v>130</v>
+      </c>
+      <c r="C116">
+        <v>100</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="15"/>
+        <v>48</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="16"/>
+        <v>-26</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1.3125</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="19"/>
+        <v>131.25</v>
+      </c>
+      <c r="C117">
+        <v>100</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="16"/>
+        <v>-28</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1.325</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="19"/>
+        <v>132.5</v>
+      </c>
+      <c r="C118">
+        <v>100</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="15"/>
+        <v>52</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="16"/>
+        <v>-30</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1.3374999999999999</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="19"/>
+        <v>133.75</v>
+      </c>
+      <c r="C119">
+        <v>100</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="15"/>
+        <v>54</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="16"/>
+        <v>-32</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1.35</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="19"/>
+        <v>135</v>
+      </c>
+      <c r="C120">
+        <v>100</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="15"/>
+        <v>56</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="16"/>
+        <v>-34</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1.3625</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="19"/>
+        <v>136.25</v>
+      </c>
+      <c r="C121">
+        <v>100</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="15"/>
+        <v>58</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="16"/>
+        <v>-36</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1.375</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="19"/>
+        <v>137.5</v>
+      </c>
+      <c r="C122">
+        <v>100</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="16"/>
+        <v>-38</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1.3875</v>
+      </c>
+      <c r="B123">
+        <f>A123*$B$9</f>
+        <v>138.75</v>
+      </c>
+      <c r="C123">
+        <v>100</v>
+      </c>
+      <c r="D123">
+        <f>1.6 *MAX(0, B123-$B$9)</f>
+        <v>62</v>
+      </c>
+      <c r="E123">
+        <f>-1.6*MAX(0, B123 - 1.1375 *$B$9)</f>
+        <v>-40</v>
+      </c>
+      <c r="F123">
+        <f>-1.1429 *MAX(0, 0.875*$B$9 - B123)</f>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f>SUM(C123:F123)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1.4</v>
+      </c>
+      <c r="B124">
+        <f>A124*$B$9</f>
+        <v>140</v>
+      </c>
+      <c r="C124">
+        <v>100</v>
+      </c>
+      <c r="D124">
+        <f t="shared" ref="D124:D132" si="20">1.6 *MAX(0, B124-$B$9)</f>
+        <v>64</v>
+      </c>
+      <c r="E124">
+        <f t="shared" ref="E124:E132" si="21">-1.6*MAX(0, B124 - 1.1375 *$B$9)</f>
+        <v>-42</v>
+      </c>
+      <c r="F124">
+        <f t="shared" ref="F124:F132" si="22">-1.1429 *MAX(0, 0.875*$B$9 - B124)</f>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" ref="G124:G132" si="23">SUM(C124:F124)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1.4125000000000001</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ref="B125:B132" si="24">A125*$B$9</f>
+        <v>141.25</v>
+      </c>
+      <c r="C125">
+        <v>100</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="20"/>
+        <v>66</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="21"/>
+        <v>-44</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="23"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1.425</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="24"/>
+        <v>142.5</v>
+      </c>
+      <c r="C126">
+        <v>100</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="20"/>
+        <v>68</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="21"/>
+        <v>-46</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="23"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1.4375</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="24"/>
+        <v>143.75</v>
+      </c>
+      <c r="C127">
+        <v>100</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="21"/>
+        <v>-48</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="23"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1.45</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="24"/>
+        <v>145</v>
+      </c>
+      <c r="C128">
+        <v>100</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="21"/>
+        <v>-50</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="23"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1.4624999999999999</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="24"/>
+        <v>146.25</v>
+      </c>
+      <c r="C129">
+        <v>100</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="20"/>
+        <v>74</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="21"/>
+        <v>-52</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="23"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="24"/>
+        <v>147.5</v>
+      </c>
+      <c r="C130">
+        <v>100</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="20"/>
+        <v>76</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="21"/>
+        <v>-54</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="23"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1.4875</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="24"/>
+        <v>148.75</v>
+      </c>
+      <c r="C131">
+        <v>100</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="20"/>
+        <v>78</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="21"/>
+        <v>-56</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="23"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1.5</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="24"/>
+        <v>150</v>
+      </c>
+      <c r="C132">
+        <v>100</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="21"/>
+        <v>-58</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="23"/>
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B2:F31"/>
@@ -2630,15 +6173,15 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="8">
-        <f>'Main Result'!B3</f>
+        <f>'Main Result'!B11</f>
         <v>43070</v>
       </c>
       <c r="C3" s="8">
-        <f>'Main Result'!C3</f>
+        <f>'Main Result'!C11</f>
         <v>43864</v>
       </c>
       <c r="D3" s="10">
-        <f>'Main Result'!D3</f>
+        <f>'Main Result'!D11</f>
         <v>2.2055555555555557</v>
       </c>
       <c r="E3" s="6"/>
@@ -2659,13 +6202,13 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
@@ -2748,13 +6291,13 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
@@ -2830,13 +6373,13 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
@@ -2912,13 +6455,13 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
@@ -2994,8 +6537,8 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="15" t="s">
-        <v>91</v>
+      <c r="B31" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3010,3463 +6553,6 @@
     <mergeCell ref="B25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:G132"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <f>A12*$B$9</f>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <f>1.6 *MAX(0, B12-$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>-1.6*MAX(0, B12 - 1.1375 *$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>-1.1429 *MAX(0, 0.875*$B$9 - B12)</f>
-        <v>-100.00375</v>
-      </c>
-      <c r="G12">
-        <f>SUM(C12:F12)</f>
-        <v>-3.7499999999965894E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="B13">
-        <f>A13*$B$9</f>
-        <v>1.25</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13:D52" si="0">1.6 *MAX(0, B13-$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ref="E13:E52" si="1">-1.6*MAX(0, B13 - 1.1375 *$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ref="F13:F52" si="2">-1.1429 *MAX(0, 0.875*$B$9 - B13)</f>
-        <v>-98.575125</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ref="G13:G52" si="3">SUM(C13:F13)</f>
-        <v>1.4248750000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ref="B14:B52" si="4">A14*$B$9</f>
-        <v>2.5</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>-97.146500000000003</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>2.8534999999999968</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="4"/>
-        <v>3.75</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>-95.717875000000006</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>4.2821249999999935</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0.05</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>-94.289249999999996</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>5.7107500000000044</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>6.25E-2</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="4"/>
-        <v>6.25</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>-92.860624999999999</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>7.1393750000000011</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="4"/>
-        <v>7.5</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>-91.432000000000002</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>8.5679999999999978</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="4"/>
-        <v>8.75</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>-90.003375000000005</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>9.9966249999999945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0.1</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>-88.574750000000009</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>11.425249999999991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>0.1125</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="4"/>
-        <v>11.25</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>-87.146124999999998</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>12.853875000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0.125</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="4"/>
-        <v>12.5</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>-85.717500000000001</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>14.282499999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0.13750000000000001</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="4"/>
-        <v>13.750000000000002</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>-84.288875000000004</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>15.711124999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0.15</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
-        <v>-82.860250000000008</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>17.139749999999992</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>0.16250000000000001</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="4"/>
-        <v>16.25</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>-81.431624999999997</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>18.568375000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="4"/>
-        <v>17.5</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>-80.003</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
-        <v>19.997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0.1875</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="4"/>
-        <v>18.75</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
-        <v>-78.574375000000003</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>21.425624999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>0.2</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
-        <v>-77.145750000000007</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>22.854249999999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>0.21249999999999999</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="4"/>
-        <v>21.25</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="2"/>
-        <v>-75.717124999999996</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
-        <v>24.282875000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="4"/>
-        <v>22.5</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="2"/>
-        <v>-74.288499999999999</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
-        <v>25.711500000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>0.23749999999999999</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="4"/>
-        <v>23.75</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="2"/>
-        <v>-72.859875000000002</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
-        <v>27.140124999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0.25</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="2"/>
-        <v>-71.431250000000006</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
-        <v>28.568749999999994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0.26250000000000001</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="4"/>
-        <v>26.25</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="2"/>
-        <v>-70.002624999999995</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="3"/>
-        <v>29.997375000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="4"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="2"/>
-        <v>-68.573999999999998</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="3"/>
-        <v>31.426000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>0.28749999999999998</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="4"/>
-        <v>28.749999999999996</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="2"/>
-        <v>-67.145375000000001</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="3"/>
-        <v>32.854624999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>0.3</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="2"/>
-        <v>-65.716750000000005</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="3"/>
-        <v>34.283249999999995</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>0.3125</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="4"/>
-        <v>31.25</v>
-      </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="2"/>
-        <v>-64.288125000000008</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="3"/>
-        <v>35.711874999999992</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="4"/>
-        <v>32.5</v>
-      </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="2"/>
-        <v>-62.859500000000004</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="3"/>
-        <v>37.140499999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="4"/>
-        <v>33.75</v>
-      </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="2"/>
-        <v>-61.430875</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="3"/>
-        <v>38.569125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>0.35</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="2"/>
-        <v>-60.002250000000004</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="3"/>
-        <v>39.997749999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>0.36249999999999999</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="4"/>
-        <v>36.25</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>-58.573625</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="3"/>
-        <v>41.426375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>0.375</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="4"/>
-        <v>37.5</v>
-      </c>
-      <c r="C42">
-        <v>100</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="2"/>
-        <v>-57.145000000000003</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="3"/>
-        <v>42.854999999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="4"/>
-        <v>38.75</v>
-      </c>
-      <c r="C43">
-        <v>100</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="2"/>
-        <v>-55.716374999999999</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="3"/>
-        <v>44.283625000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>0.4</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="C44">
-        <v>100</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="2"/>
-        <v>-54.287750000000003</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="3"/>
-        <v>45.712249999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>0.41249999999999998</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="4"/>
-        <v>41.25</v>
-      </c>
-      <c r="C45">
-        <v>100</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="2"/>
-        <v>-52.859124999999999</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="3"/>
-        <v>47.140875000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="4"/>
-        <v>42.5</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="2"/>
-        <v>-51.430500000000002</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="3"/>
-        <v>48.569499999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>0.4375</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="4"/>
-        <v>43.75</v>
-      </c>
-      <c r="C47">
-        <v>100</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="2"/>
-        <v>-50.001874999999998</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="3"/>
-        <v>49.998125000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>0.45</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="C48">
-        <v>100</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="2"/>
-        <v>-48.573250000000002</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="3"/>
-        <v>51.426749999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="4"/>
-        <v>46.25</v>
-      </c>
-      <c r="C49">
-        <v>100</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="2"/>
-        <v>-47.144624999999998</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="3"/>
-        <v>52.855375000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="4"/>
-        <v>47.5</v>
-      </c>
-      <c r="C50">
-        <v>100</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="2"/>
-        <v>-45.716000000000001</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="3"/>
-        <v>54.283999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="4"/>
-        <v>48.75</v>
-      </c>
-      <c r="C51">
-        <v>100</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="2"/>
-        <v>-44.287375000000004</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="3"/>
-        <v>55.712624999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>0.5</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>100</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="2"/>
-        <v>-42.858750000000001</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="3"/>
-        <v>57.141249999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="B53">
-        <f>A53*$B$9</f>
-        <v>51.249999999999993</v>
-      </c>
-      <c r="C53">
-        <v>100</v>
-      </c>
-      <c r="D53">
-        <f>1.6 *MAX(0, B53-$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <f>-1.6*MAX(0, B53 - 1.1375 *$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <f>-1.1429 *MAX(0, 0.875*$B$9 - B53)</f>
-        <v>-41.430125000000011</v>
-      </c>
-      <c r="G53">
-        <f>SUM(C53:F53)</f>
-        <v>58.569874999999989</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="B54">
-        <f>A54*$B$9</f>
-        <v>52.5</v>
-      </c>
-      <c r="C54">
-        <v>100</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ref="D54:D64" si="5">1.6 *MAX(0, B54-$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ref="E54:E64" si="6">-1.6*MAX(0, B54 - 1.1375 *$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <f t="shared" ref="F54:F64" si="7">-1.1429 *MAX(0, 0.875*$B$9 - B54)</f>
-        <v>-40.0015</v>
-      </c>
-      <c r="G54">
-        <f t="shared" ref="G54:G64" si="8">SUM(C54:F54)</f>
-        <v>59.9985</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>0.53749999999999998</v>
-      </c>
-      <c r="B55">
-        <f t="shared" ref="B55:B64" si="9">A55*$B$9</f>
-        <v>53.75</v>
-      </c>
-      <c r="C55">
-        <v>100</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="7"/>
-        <v>-38.572875000000003</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="8"/>
-        <v>61.427124999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="9"/>
-        <v>55.000000000000007</v>
-      </c>
-      <c r="C56">
-        <v>100</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="7"/>
-        <v>-37.144249999999992</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="8"/>
-        <v>62.855750000000008</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>0.5625</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="9"/>
-        <v>56.25</v>
-      </c>
-      <c r="C57">
-        <v>100</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="7"/>
-        <v>-35.715625000000003</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="8"/>
-        <v>64.284374999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="9"/>
-        <v>57.499999999999993</v>
-      </c>
-      <c r="C58">
-        <v>100</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="7"/>
-        <v>-34.287000000000006</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="8"/>
-        <v>65.712999999999994</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="9"/>
-        <v>58.75</v>
-      </c>
-      <c r="C59">
-        <v>100</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="7"/>
-        <v>-32.858375000000002</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="8"/>
-        <v>67.141625000000005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>0.6</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="C60">
-        <v>100</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="7"/>
-        <v>-31.429750000000002</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="8"/>
-        <v>68.570250000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="9"/>
-        <v>61.250000000000007</v>
-      </c>
-      <c r="C61">
-        <v>100</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="7"/>
-        <v>-30.001124999999991</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="8"/>
-        <v>69.998875000000012</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>0.625</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="9"/>
-        <v>62.5</v>
-      </c>
-      <c r="C62">
-        <v>100</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="7"/>
-        <v>-28.572500000000002</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="8"/>
-        <v>71.427499999999995</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="9"/>
-        <v>63.749999999999993</v>
-      </c>
-      <c r="C63">
-        <v>100</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="7"/>
-        <v>-27.143875000000008</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="8"/>
-        <v>72.856124999999992</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>0.65</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="9"/>
-        <v>65</v>
-      </c>
-      <c r="C64">
-        <v>100</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="7"/>
-        <v>-25.715250000000001</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="8"/>
-        <v>74.284750000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="B65">
-        <f>A65*$B$9</f>
-        <v>66.25</v>
-      </c>
-      <c r="C65">
-        <v>100</v>
-      </c>
-      <c r="D65">
-        <f>1.6 *MAX(0, B65-$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <f>-1.6*MAX(0, B65 - 1.1375 *$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <f>-1.1429 *MAX(0, 0.875*$B$9 - B65)</f>
-        <v>-24.286625000000001</v>
-      </c>
-      <c r="G65">
-        <f>SUM(C65:F65)</f>
-        <v>75.713374999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="B66">
-        <f>A66*$B$9</f>
-        <v>67.5</v>
-      </c>
-      <c r="C66">
-        <v>100</v>
-      </c>
-      <c r="D66">
-        <f t="shared" ref="D66:D81" si="10">1.6 *MAX(0, B66-$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ref="E66:E81" si="11">-1.6*MAX(0, B66 - 1.1375 *$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <f t="shared" ref="F66:F81" si="12">-1.1429 *MAX(0, 0.875*$B$9 - B66)</f>
-        <v>-22.858000000000001</v>
-      </c>
-      <c r="G66">
-        <f t="shared" ref="G66:G81" si="13">SUM(C66:F66)</f>
-        <v>77.141999999999996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>0.6875</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ref="B67:B81" si="14">A67*$B$9</f>
-        <v>68.75</v>
-      </c>
-      <c r="C67">
-        <v>100</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="12"/>
-        <v>-21.429375</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="13"/>
-        <v>78.570625000000007</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>0.7</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="14"/>
-        <v>70</v>
-      </c>
-      <c r="C68">
-        <v>100</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="12"/>
-        <v>-20.00075</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="13"/>
-        <v>79.999250000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="14"/>
-        <v>71.25</v>
-      </c>
-      <c r="C69">
-        <v>100</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="12"/>
-        <v>-18.572125</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="13"/>
-        <v>81.427875</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="14"/>
-        <v>72.5</v>
-      </c>
-      <c r="C70">
-        <v>100</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="12"/>
-        <v>-17.1435</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="13"/>
-        <v>82.856499999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="14"/>
-        <v>73.75</v>
-      </c>
-      <c r="C71">
-        <v>100</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="12"/>
-        <v>-15.714875000000001</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="13"/>
-        <v>84.285124999999994</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>0.75</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="14"/>
-        <v>75</v>
-      </c>
-      <c r="C72">
-        <v>100</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="12"/>
-        <v>-14.286250000000001</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="13"/>
-        <v>85.713750000000005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>0.76249999999999996</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="14"/>
-        <v>76.25</v>
-      </c>
-      <c r="C73">
-        <v>100</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="12"/>
-        <v>-12.857625000000001</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="13"/>
-        <v>87.142375000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="14"/>
-        <v>77.5</v>
-      </c>
-      <c r="C74">
-        <v>100</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="12"/>
-        <v>-11.429</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="13"/>
-        <v>88.570999999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="14"/>
-        <v>78.75</v>
-      </c>
-      <c r="C75">
-        <v>100</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="12"/>
-        <v>-10.000375</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="13"/>
-        <v>89.999624999999995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>0.8</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="14"/>
-        <v>80</v>
-      </c>
-      <c r="C76">
-        <v>100</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="12"/>
-        <v>-8.5717499999999998</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="13"/>
-        <v>91.428250000000006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>0.8125</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="14"/>
-        <v>81.25</v>
-      </c>
-      <c r="C77">
-        <v>100</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="12"/>
-        <v>-7.1431250000000004</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="13"/>
-        <v>92.856875000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="14"/>
-        <v>82.5</v>
-      </c>
-      <c r="C78">
-        <v>100</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="12"/>
-        <v>-5.7145000000000001</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="13"/>
-        <v>94.285499999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>0.83750000000000002</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="14"/>
-        <v>83.75</v>
-      </c>
-      <c r="C79">
-        <v>100</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="12"/>
-        <v>-4.2858749999999999</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="13"/>
-        <v>95.714124999999996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>0.85</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="14"/>
-        <v>85</v>
-      </c>
-      <c r="C80">
-        <v>100</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="12"/>
-        <v>-2.8572500000000001</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="13"/>
-        <v>97.142750000000007</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="14"/>
-        <v>86.25</v>
-      </c>
-      <c r="C81">
-        <v>100</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="12"/>
-        <v>-1.428625</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="13"/>
-        <v>98.571375000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>0.875</v>
-      </c>
-      <c r="B82">
-        <f>A82*$B$9</f>
-        <v>87.5</v>
-      </c>
-      <c r="C82">
-        <v>100</v>
-      </c>
-      <c r="D82">
-        <f>1.6 *MAX(0, B82-$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <f>-1.6*MAX(0, B82 - 1.1375 *$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <f>-1.1429 *MAX(0, 0.875*$B$9 - B82)</f>
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <f>SUM(C82:F82)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>0.88749999999999996</v>
-      </c>
-      <c r="B83">
-        <f>A83*$B$9</f>
-        <v>88.75</v>
-      </c>
-      <c r="C83">
-        <v>100</v>
-      </c>
-      <c r="D83">
-        <f t="shared" ref="D83:D122" si="15">1.6 *MAX(0, B83-$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <f t="shared" ref="E83:E122" si="16">-1.6*MAX(0, B83 - 1.1375 *$B$9)</f>
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <f t="shared" ref="F83:F122" si="17">-1.1429 *MAX(0, 0.875*$B$9 - B83)</f>
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <f t="shared" ref="G83:G122" si="18">SUM(C83:F83)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>0.9</v>
-      </c>
-      <c r="B84">
-        <f t="shared" ref="B84:B122" si="19">A84*$B$9</f>
-        <v>90</v>
-      </c>
-      <c r="C84">
-        <v>100</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>0.91249999999999998</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="19"/>
-        <v>91.25</v>
-      </c>
-      <c r="C85">
-        <v>100</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="19"/>
-        <v>92.5</v>
-      </c>
-      <c r="C86">
-        <v>100</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>0.9375</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="19"/>
-        <v>93.75</v>
-      </c>
-      <c r="C87">
-        <v>100</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>0.95</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="19"/>
-        <v>95</v>
-      </c>
-      <c r="C88">
-        <v>100</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="19"/>
-        <v>96.25</v>
-      </c>
-      <c r="C89">
-        <v>100</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="19"/>
-        <v>97.5</v>
-      </c>
-      <c r="C90">
-        <v>100</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="19"/>
-        <v>98.75</v>
-      </c>
-      <c r="C91">
-        <v>100</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="19"/>
-        <v>100</v>
-      </c>
-      <c r="C92">
-        <v>100</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>1.0125</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="19"/>
-        <v>101.25</v>
-      </c>
-      <c r="C93">
-        <v>100</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="18"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="19"/>
-        <v>102.49999999999999</v>
-      </c>
-      <c r="C94">
-        <v>100</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="15"/>
-        <v>3.9999999999999774</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="18"/>
-        <v>103.99999999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>1.0375000000000001</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="19"/>
-        <v>103.75000000000001</v>
-      </c>
-      <c r="C95">
-        <v>100</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="15"/>
-        <v>6.0000000000000231</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="18"/>
-        <v>106.00000000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>1.05</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="19"/>
-        <v>105</v>
-      </c>
-      <c r="C96">
-        <v>100</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="18"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>1.0625</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="19"/>
-        <v>106.25</v>
-      </c>
-      <c r="C97">
-        <v>100</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="18"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>1.075</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="19"/>
-        <v>107.5</v>
-      </c>
-      <c r="C98">
-        <v>100</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="18"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>1.0874999999999999</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="19"/>
-        <v>108.74999999999999</v>
-      </c>
-      <c r="C99">
-        <v>100</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="15"/>
-        <v>13.999999999999979</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="18"/>
-        <v>113.99999999999997</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="19"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="C100">
-        <v>100</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="15"/>
-        <v>16.000000000000025</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="18"/>
-        <v>116.00000000000003</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>1.1125</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="19"/>
-        <v>111.25</v>
-      </c>
-      <c r="C101">
-        <v>100</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="15"/>
-        <v>18</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="18"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>1.125</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="19"/>
-        <v>112.5</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="18"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>1.1375</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="19"/>
-        <v>113.75</v>
-      </c>
-      <c r="C103">
-        <v>100</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="15"/>
-        <v>22</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="19"/>
-        <v>114.99999999999999</v>
-      </c>
-      <c r="C104">
-        <v>100</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="15"/>
-        <v>23.999999999999979</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="16"/>
-        <v>-1.9999999999999774</v>
-      </c>
-      <c r="F104">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>1.1625000000000001</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="19"/>
-        <v>116.25000000000001</v>
-      </c>
-      <c r="C105">
-        <v>100</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="15"/>
-        <v>26.000000000000025</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="16"/>
-        <v>-4.0000000000000231</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>1.175</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="19"/>
-        <v>117.5</v>
-      </c>
-      <c r="C106">
-        <v>100</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="15"/>
-        <v>28</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="16"/>
-        <v>-6</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>1.1875</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="19"/>
-        <v>118.75</v>
-      </c>
-      <c r="C107">
-        <v>100</v>
-      </c>
-      <c r="D107">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="16"/>
-        <v>-8</v>
-      </c>
-      <c r="F107">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>1.2</v>
-      </c>
-      <c r="B108">
-        <f t="shared" si="19"/>
-        <v>120</v>
-      </c>
-      <c r="C108">
-        <v>100</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="15"/>
-        <v>32</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="16"/>
-        <v>-10</v>
-      </c>
-      <c r="F108">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>1.2124999999999999</v>
-      </c>
-      <c r="B109">
-        <f t="shared" si="19"/>
-        <v>121.24999999999999</v>
-      </c>
-      <c r="C109">
-        <v>100</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="15"/>
-        <v>33.999999999999979</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="16"/>
-        <v>-11.999999999999979</v>
-      </c>
-      <c r="F109">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="B110">
-        <f t="shared" si="19"/>
-        <v>122.50000000000001</v>
-      </c>
-      <c r="C110">
-        <v>100</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="15"/>
-        <v>36.000000000000021</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="16"/>
-        <v>-14.000000000000023</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>1.2375</v>
-      </c>
-      <c r="B111">
-        <f t="shared" si="19"/>
-        <v>123.75</v>
-      </c>
-      <c r="C111">
-        <v>100</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="15"/>
-        <v>38</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="16"/>
-        <v>-16</v>
-      </c>
-      <c r="F111">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>1.25</v>
-      </c>
-      <c r="B112">
-        <f t="shared" si="19"/>
-        <v>125</v>
-      </c>
-      <c r="C112">
-        <v>100</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="15"/>
-        <v>40</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="16"/>
-        <v>-18</v>
-      </c>
-      <c r="F112">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>1.2625</v>
-      </c>
-      <c r="B113">
-        <f t="shared" si="19"/>
-        <v>126.25</v>
-      </c>
-      <c r="C113">
-        <v>100</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="15"/>
-        <v>42</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="16"/>
-        <v>-20</v>
-      </c>
-      <c r="F113">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="B114">
-        <f t="shared" si="19"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="C114">
-        <v>100</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="15"/>
-        <v>43.999999999999979</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="16"/>
-        <v>-21.999999999999979</v>
-      </c>
-      <c r="F114">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>1.2875000000000001</v>
-      </c>
-      <c r="B115">
-        <f t="shared" si="19"/>
-        <v>128.75</v>
-      </c>
-      <c r="C115">
-        <v>100</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="15"/>
-        <v>46</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="16"/>
-        <v>-24</v>
-      </c>
-      <c r="F115">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>1.3</v>
-      </c>
-      <c r="B116">
-        <f t="shared" si="19"/>
-        <v>130</v>
-      </c>
-      <c r="C116">
-        <v>100</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="15"/>
-        <v>48</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="16"/>
-        <v>-26</v>
-      </c>
-      <c r="F116">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>1.3125</v>
-      </c>
-      <c r="B117">
-        <f t="shared" si="19"/>
-        <v>131.25</v>
-      </c>
-      <c r="C117">
-        <v>100</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="15"/>
-        <v>50</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="16"/>
-        <v>-28</v>
-      </c>
-      <c r="F117">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>1.325</v>
-      </c>
-      <c r="B118">
-        <f t="shared" si="19"/>
-        <v>132.5</v>
-      </c>
-      <c r="C118">
-        <v>100</v>
-      </c>
-      <c r="D118">
-        <f t="shared" si="15"/>
-        <v>52</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="16"/>
-        <v>-30</v>
-      </c>
-      <c r="F118">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>1.3374999999999999</v>
-      </c>
-      <c r="B119">
-        <f t="shared" si="19"/>
-        <v>133.75</v>
-      </c>
-      <c r="C119">
-        <v>100</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="15"/>
-        <v>54</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="16"/>
-        <v>-32</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>1.35</v>
-      </c>
-      <c r="B120">
-        <f t="shared" si="19"/>
-        <v>135</v>
-      </c>
-      <c r="C120">
-        <v>100</v>
-      </c>
-      <c r="D120">
-        <f t="shared" si="15"/>
-        <v>56</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="16"/>
-        <v>-34</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>1.3625</v>
-      </c>
-      <c r="B121">
-        <f t="shared" si="19"/>
-        <v>136.25</v>
-      </c>
-      <c r="C121">
-        <v>100</v>
-      </c>
-      <c r="D121">
-        <f t="shared" si="15"/>
-        <v>58</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="16"/>
-        <v>-36</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>1.375</v>
-      </c>
-      <c r="B122">
-        <f t="shared" si="19"/>
-        <v>137.5</v>
-      </c>
-      <c r="C122">
-        <v>100</v>
-      </c>
-      <c r="D122">
-        <f t="shared" si="15"/>
-        <v>60</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="16"/>
-        <v>-38</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="18"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>1.3875</v>
-      </c>
-      <c r="B123">
-        <f>A123*$B$9</f>
-        <v>138.75</v>
-      </c>
-      <c r="C123">
-        <v>100</v>
-      </c>
-      <c r="D123">
-        <f>1.6 *MAX(0, B123-$B$9)</f>
-        <v>62</v>
-      </c>
-      <c r="E123">
-        <f>-1.6*MAX(0, B123 - 1.1375 *$B$9)</f>
-        <v>-40</v>
-      </c>
-      <c r="F123">
-        <f>-1.1429 *MAX(0, 0.875*$B$9 - B123)</f>
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <f>SUM(C123:F123)</f>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>1.4</v>
-      </c>
-      <c r="B124">
-        <f>A124*$B$9</f>
-        <v>140</v>
-      </c>
-      <c r="C124">
-        <v>100</v>
-      </c>
-      <c r="D124">
-        <f t="shared" ref="D124:D132" si="20">1.6 *MAX(0, B124-$B$9)</f>
-        <v>64</v>
-      </c>
-      <c r="E124">
-        <f t="shared" ref="E124:E132" si="21">-1.6*MAX(0, B124 - 1.1375 *$B$9)</f>
-        <v>-42</v>
-      </c>
-      <c r="F124">
-        <f t="shared" ref="F124:F132" si="22">-1.1429 *MAX(0, 0.875*$B$9 - B124)</f>
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <f t="shared" ref="G124:G132" si="23">SUM(C124:F124)</f>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>1.4125000000000001</v>
-      </c>
-      <c r="B125">
-        <f t="shared" ref="B125:B132" si="24">A125*$B$9</f>
-        <v>141.25</v>
-      </c>
-      <c r="C125">
-        <v>100</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="20"/>
-        <v>66</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="21"/>
-        <v>-44</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="23"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>1.425</v>
-      </c>
-      <c r="B126">
-        <f t="shared" si="24"/>
-        <v>142.5</v>
-      </c>
-      <c r="C126">
-        <v>100</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="20"/>
-        <v>68</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="21"/>
-        <v>-46</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="23"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>1.4375</v>
-      </c>
-      <c r="B127">
-        <f t="shared" si="24"/>
-        <v>143.75</v>
-      </c>
-      <c r="C127">
-        <v>100</v>
-      </c>
-      <c r="D127">
-        <f t="shared" si="20"/>
-        <v>70</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="21"/>
-        <v>-48</v>
-      </c>
-      <c r="F127">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="23"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>1.45</v>
-      </c>
-      <c r="B128">
-        <f t="shared" si="24"/>
-        <v>145</v>
-      </c>
-      <c r="C128">
-        <v>100</v>
-      </c>
-      <c r="D128">
-        <f t="shared" si="20"/>
-        <v>72</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="21"/>
-        <v>-50</v>
-      </c>
-      <c r="F128">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <f t="shared" si="23"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>1.4624999999999999</v>
-      </c>
-      <c r="B129">
-        <f t="shared" si="24"/>
-        <v>146.25</v>
-      </c>
-      <c r="C129">
-        <v>100</v>
-      </c>
-      <c r="D129">
-        <f t="shared" si="20"/>
-        <v>74</v>
-      </c>
-      <c r="E129">
-        <f t="shared" si="21"/>
-        <v>-52</v>
-      </c>
-      <c r="F129">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="23"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="B130">
-        <f t="shared" si="24"/>
-        <v>147.5</v>
-      </c>
-      <c r="C130">
-        <v>100</v>
-      </c>
-      <c r="D130">
-        <f t="shared" si="20"/>
-        <v>76</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="21"/>
-        <v>-54</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="23"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>1.4875</v>
-      </c>
-      <c r="B131">
-        <f t="shared" si="24"/>
-        <v>148.75</v>
-      </c>
-      <c r="C131">
-        <v>100</v>
-      </c>
-      <c r="D131">
-        <f t="shared" si="20"/>
-        <v>78</v>
-      </c>
-      <c r="E131">
-        <f t="shared" si="21"/>
-        <v>-56</v>
-      </c>
-      <c r="F131">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <f t="shared" si="23"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>1.5</v>
-      </c>
-      <c r="B132">
-        <f t="shared" si="24"/>
-        <v>150</v>
-      </c>
-      <c r="C132">
-        <v>100</v>
-      </c>
-      <c r="D132">
-        <f t="shared" si="20"/>
-        <v>80</v>
-      </c>
-      <c r="E132">
-        <f t="shared" si="21"/>
-        <v>-58</v>
-      </c>
-      <c r="F132">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="23"/>
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6499,7 +6585,7 @@
         <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6510,7 +6596,7 @@
         <f>AVERAGE(C14,C26)</f>
         <v>4.6135000000000002</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <f>EXP(LN('Term Structure'!$G$4) / (('Term Structure'!$A$4 - 'Term Structure'!$A$2) / 360) * ((A2 - 'Term Structure'!$A$2) / 360))</f>
         <v>0.99881040663472931</v>
       </c>
@@ -6529,7 +6615,7 @@
       <c r="C3" s="11">
         <v>0.50600000000000001</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f>EXP(LN('Term Structure'!$G$4) / (('Term Structure'!$A$4 - 'Term Structure'!$A$2) / 360) * ((A3 - 'Term Structure'!$A$2) / 360))</f>
         <v>0.99758264681280484</v>
       </c>
@@ -6548,7 +6634,7 @@
       <c r="C4" s="11">
         <v>5.7629999999999999</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f>EXP(LN('Term Structure'!$G$4) / (('Term Structure'!$A$4 - 'Term Structure'!$A$2) / 360) * ((A4 - 'Term Structure'!$A$2) / 360))</f>
         <v>0.9964749996895429</v>
       </c>
@@ -7080,7 +7166,7 @@
       <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">

--- a/Homework/HW1/FIN514.xlsx
+++ b/Homework/HW1/FIN514.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
   <si>
     <t>1. A zero coupon bond with face value of $1000 maturing at 3 Feb, 2020</t>
   </si>
@@ -169,9 +169,6 @@
     <t>PV of Dividends</t>
   </si>
   <si>
-    <t>Expiry Date</t>
-  </si>
-  <si>
     <t>Call Option 1</t>
   </si>
   <si>
@@ -191,12 +188,6 @@
   </si>
   <si>
     <t>d2</t>
-  </si>
-  <si>
-    <t>Annualized Time to Maturity</t>
-  </si>
-  <si>
-    <t>Interest Rate</t>
   </si>
   <si>
     <t>Bond</t>
@@ -271,6 +262,42 @@
   </si>
   <si>
     <t>Construction of Replicating Portfolio</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dividend Yield(cc)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue Date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maturity Date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Determination Date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Determination Date - Valuation Date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maturity Date - Issue Date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Rate(Determination - Valuation)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjustment</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Rate(Adjustment)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +390,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -401,6 +428,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,364 +556,364 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.25</c:v>
+                  <c:v>33.027749999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5</c:v>
+                  <c:v>66.055499999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.75</c:v>
+                  <c:v>99.083249999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>132.11099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.25</c:v>
+                  <c:v>165.13874999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5</c:v>
+                  <c:v>198.16649999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.75</c:v>
+                  <c:v>231.19424999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>264.22199999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.25</c:v>
+                  <c:v>297.24975000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.5</c:v>
+                  <c:v>330.27749999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.750000000000002</c:v>
+                  <c:v>363.30525</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>396.33299999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.25</c:v>
+                  <c:v>429.36075</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.5</c:v>
+                  <c:v>462.38849999999991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.75</c:v>
+                  <c:v>495.41624999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20</c:v>
+                  <c:v>528.44399999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.25</c:v>
+                  <c:v>561.47174999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.5</c:v>
+                  <c:v>594.49950000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.75</c:v>
+                  <c:v>627.52724999999987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25</c:v>
+                  <c:v>660.55499999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.25</c:v>
+                  <c:v>693.58275000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.500000000000004</c:v>
+                  <c:v>726.6105</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28.749999999999996</c:v>
+                  <c:v>759.63824999999986</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30</c:v>
+                  <c:v>792.66599999999994</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.25</c:v>
+                  <c:v>825.69374999999991</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32.5</c:v>
+                  <c:v>858.72149999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>33.75</c:v>
+                  <c:v>891.74924999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35</c:v>
+                  <c:v>924.77699999999982</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.25</c:v>
+                  <c:v>957.8047499999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37.5</c:v>
+                  <c:v>990.83249999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>38.75</c:v>
+                  <c:v>1023.86025</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40</c:v>
+                  <c:v>1056.8879999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41.25</c:v>
+                  <c:v>1089.9157499999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42.5</c:v>
+                  <c:v>1122.9434999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.75</c:v>
+                  <c:v>1155.9712499999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45</c:v>
+                  <c:v>1188.999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>46.25</c:v>
+                  <c:v>1222.02675</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>47.5</c:v>
+                  <c:v>1255.0544999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48.75</c:v>
+                  <c:v>1288.0822499999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50</c:v>
+                  <c:v>1321.11</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>51.249999999999993</c:v>
+                  <c:v>1354.1377499999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>52.5</c:v>
+                  <c:v>1387.1655000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>53.75</c:v>
+                  <c:v>1420.1932499999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>55.000000000000007</c:v>
+                  <c:v>1453.221</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>56.25</c:v>
+                  <c:v>1486.24875</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>57.499999999999993</c:v>
+                  <c:v>1519.2764999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>58.75</c:v>
+                  <c:v>1552.3042499999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>60</c:v>
+                  <c:v>1585.3319999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>61.250000000000007</c:v>
+                  <c:v>1618.3597500000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>62.5</c:v>
+                  <c:v>1651.3874999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>63.749999999999993</c:v>
+                  <c:v>1684.4152499999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>65</c:v>
+                  <c:v>1717.443</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>66.25</c:v>
+                  <c:v>1750.4707499999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>67.5</c:v>
+                  <c:v>1783.4984999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>68.75</c:v>
+                  <c:v>1816.5262499999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>70</c:v>
+                  <c:v>1849.5539999999996</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>71.25</c:v>
+                  <c:v>1882.5817499999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>72.5</c:v>
+                  <c:v>1915.6094999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>73.75</c:v>
+                  <c:v>1948.63725</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>75</c:v>
+                  <c:v>1981.665</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>76.25</c:v>
+                  <c:v>2014.6927499999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>77.5</c:v>
+                  <c:v>2047.7204999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>78.75</c:v>
+                  <c:v>2080.7482499999996</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>80</c:v>
+                  <c:v>2113.7759999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>81.25</c:v>
+                  <c:v>2146.80375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>82.5</c:v>
+                  <c:v>2179.8314999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>83.75</c:v>
+                  <c:v>2212.85925</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>85</c:v>
+                  <c:v>2245.8869999999997</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>86.25</c:v>
+                  <c:v>2278.9147499999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>87.5</c:v>
+                  <c:v>2311.9424999999997</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>88.75</c:v>
+                  <c:v>2344.9702499999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>90</c:v>
+                  <c:v>2377.998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>91.25</c:v>
+                  <c:v>2411.0257499999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>92.5</c:v>
+                  <c:v>2444.0535</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>93.75</c:v>
+                  <c:v>2477.0812499999997</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>95</c:v>
+                  <c:v>2510.1089999999995</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>96.25</c:v>
+                  <c:v>2543.1367499999997</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>97.5</c:v>
+                  <c:v>2576.1644999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>98.75</c:v>
+                  <c:v>2609.1922500000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>100</c:v>
+                  <c:v>2642.22</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>101.25</c:v>
+                  <c:v>2675.2477499999995</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>102.49999999999999</c:v>
+                  <c:v>2708.2754999999997</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>103.75000000000001</c:v>
+                  <c:v>2741.3032499999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>105</c:v>
+                  <c:v>2774.3310000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>106.25</c:v>
+                  <c:v>2807.3587499999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>107.5</c:v>
+                  <c:v>2840.3864999999996</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>108.74999999999999</c:v>
+                  <c:v>2873.4142499999994</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>110.00000000000001</c:v>
+                  <c:v>2906.442</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>111.25</c:v>
+                  <c:v>2939.4697499999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>112.5</c:v>
+                  <c:v>2972.4974999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>113.75</c:v>
+                  <c:v>3005.5252499999997</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>114.99999999999999</c:v>
+                  <c:v>3038.5529999999994</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>116.25000000000001</c:v>
+                  <c:v>3071.5807500000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>117.5</c:v>
+                  <c:v>3104.6084999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>118.75</c:v>
+                  <c:v>3137.6362499999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>120</c:v>
+                  <c:v>3170.6639999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>121.24999999999999</c:v>
+                  <c:v>3203.6917499999995</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>122.50000000000001</c:v>
+                  <c:v>3236.7195000000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>123.75</c:v>
+                  <c:v>3269.7472499999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>125</c:v>
+                  <c:v>3302.7749999999996</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>126.25</c:v>
+                  <c:v>3335.8027499999998</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>127.49999999999999</c:v>
+                  <c:v>3368.8304999999996</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>128.75</c:v>
+                  <c:v>3401.8582499999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>130</c:v>
+                  <c:v>3434.886</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>131.25</c:v>
+                  <c:v>3467.9137499999997</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>132.5</c:v>
+                  <c:v>3500.9414999999995</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>133.75</c:v>
+                  <c:v>3533.9692499999996</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>135</c:v>
+                  <c:v>3566.9969999999998</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>136.25</c:v>
+                  <c:v>3600.02475</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>137.5</c:v>
+                  <c:v>3633.0524999999998</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>138.75</c:v>
+                  <c:v>3666.0802499999995</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>140</c:v>
+                  <c:v>3699.1079999999993</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>141.25</c:v>
+                  <c:v>3732.1357499999999</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>142.5</c:v>
+                  <c:v>3765.1634999999997</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>143.75</c:v>
+                  <c:v>3798.1912499999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>145</c:v>
+                  <c:v>3831.2189999999996</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>146.25</c:v>
+                  <c:v>3864.2467499999993</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>147.5</c:v>
+                  <c:v>3897.2745</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>148.75</c:v>
+                  <c:v>3930.3022499999997</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>150</c:v>
+                  <c:v>3963.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,367 +925,367 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="0">
-                  <c:v>-3.7499999999965894E-3</c:v>
+                  <c:v>5.864725000000135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4248750000000001</c:v>
+                  <c:v>20.066657500000247</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8534999999999968</c:v>
+                  <c:v>34.268590000000131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2821249999999935</c:v>
+                  <c:v>48.470522500000243</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7107500000000044</c:v>
+                  <c:v>62.672455000000127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1393750000000011</c:v>
+                  <c:v>76.874387500000239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5679999999999978</c:v>
+                  <c:v>91.076320000000123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9966249999999945</c:v>
+                  <c:v>105.27825250000012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.425249999999991</c:v>
+                  <c:v>119.48018500000012</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.853875000000002</c:v>
+                  <c:v>133.68211750000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.282499999999999</c:v>
+                  <c:v>147.88405000000012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.711124999999996</c:v>
+                  <c:v>162.08598250000011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.139749999999992</c:v>
+                  <c:v>176.28791500000023</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.568375000000003</c:v>
+                  <c:v>190.48984750000022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.997</c:v>
+                  <c:v>204.69178000000022</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.425624999999997</c:v>
+                  <c:v>218.89371250000011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.854249999999993</c:v>
+                  <c:v>233.0956450000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.282875000000004</c:v>
+                  <c:v>247.2975775000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.711500000000001</c:v>
+                  <c:v>261.4995100000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.140124999999998</c:v>
+                  <c:v>275.7014425000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.568749999999994</c:v>
+                  <c:v>289.9033750000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.997375000000005</c:v>
+                  <c:v>304.10530750000021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31.426000000000002</c:v>
+                  <c:v>318.30724000000021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.854624999999999</c:v>
+                  <c:v>332.50917250000009</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>34.283249999999995</c:v>
+                  <c:v>346.71110500000009</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35.711874999999992</c:v>
+                  <c:v>360.91303750000009</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37.140499999999996</c:v>
+                  <c:v>375.1149700000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>38.569125</c:v>
+                  <c:v>389.31690250000008</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>39.997749999999996</c:v>
+                  <c:v>403.51883500000008</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41.426375</c:v>
+                  <c:v>417.72076750000008</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42.854999999999997</c:v>
+                  <c:v>431.92270000000019</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.283625000000001</c:v>
+                  <c:v>446.12463250000019</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45.712249999999997</c:v>
+                  <c:v>460.32656500000007</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>47.140875000000001</c:v>
+                  <c:v>474.52849750000007</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>48.569499999999998</c:v>
+                  <c:v>488.73043000000007</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>49.998125000000002</c:v>
+                  <c:v>502.93236250000007</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51.426749999999998</c:v>
+                  <c:v>517.13429500000018</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>52.855375000000002</c:v>
+                  <c:v>531.33622750000018</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>54.283999999999999</c:v>
+                  <c:v>545.53816000000006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>55.712624999999996</c:v>
+                  <c:v>559.74009250000017</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>57.141249999999999</c:v>
+                  <c:v>573.94202500000006</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>58.569874999999989</c:v>
+                  <c:v>588.14395750000017</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>59.9985</c:v>
+                  <c:v>602.34589000000017</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>61.427124999999997</c:v>
+                  <c:v>616.54782250000005</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62.855750000000008</c:v>
+                  <c:v>630.74975500000016</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>64.284374999999997</c:v>
+                  <c:v>644.95168750000016</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>65.712999999999994</c:v>
+                  <c:v>659.15362000000005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>67.141625000000005</c:v>
+                  <c:v>673.35555250000016</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>68.570250000000001</c:v>
+                  <c:v>687.55748500000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>69.998875000000012</c:v>
+                  <c:v>701.75941750000015</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>71.427499999999995</c:v>
+                  <c:v>715.96135000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>72.856124999999992</c:v>
+                  <c:v>730.16328250000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>74.284750000000003</c:v>
+                  <c:v>744.36521500000015</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>75.713374999999999</c:v>
+                  <c:v>758.56714750000003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>77.141999999999996</c:v>
+                  <c:v>772.76908000000014</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>78.570625000000007</c:v>
+                  <c:v>786.97101250000014</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>79.999250000000004</c:v>
+                  <c:v>801.17294500000003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>81.427875</c:v>
+                  <c:v>815.37487750000014</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>82.856499999999997</c:v>
+                  <c:v>829.57681000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>84.285124999999994</c:v>
+                  <c:v>843.77874250000013</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>85.713750000000005</c:v>
+                  <c:v>857.98067500000013</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>87.142375000000001</c:v>
+                  <c:v>872.18260750000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>88.570999999999998</c:v>
+                  <c:v>886.38454000000013</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>89.999624999999995</c:v>
+                  <c:v>900.58647250000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>91.428250000000006</c:v>
+                  <c:v>914.78840500000013</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>92.856875000000002</c:v>
+                  <c:v>928.99033750000012</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>94.285499999999999</c:v>
+                  <c:v>943.19227000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>95.714124999999996</c:v>
+                  <c:v>957.39420250000012</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>97.142750000000007</c:v>
+                  <c:v>971.596135</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>98.571375000000003</c:v>
+                  <c:v>985.79806750000012</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>102</c:v>
+                  <c:v>1052.8443999999995</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>103.99999999999997</c:v>
+                  <c:v>1105.6887999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>106.00000000000003</c:v>
+                  <c:v>1158.5332000000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>108</c:v>
+                  <c:v>1211.3776000000005</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>110</c:v>
+                  <c:v>1264.2220000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>112</c:v>
+                  <c:v>1317.0663999999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>113.99999999999997</c:v>
+                  <c:v>1369.9107999999992</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>116.00000000000003</c:v>
+                  <c:v>1422.7552000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>118</c:v>
+                  <c:v>1475.5996</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>120</c:v>
+                  <c:v>1528.4440000000004</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999997</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999995</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999995</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>122</c:v>
+                  <c:v>1581.2884000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999995</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999995</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>122</c:v>
+                  <c:v>1581.2884000000001</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>122</c:v>
+                  <c:v>1581.2884000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999997</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999997</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>122</c:v>
+                  <c:v>1581.2884000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999997</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>122</c:v>
+                  <c:v>1581.2884000000001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999995</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999997</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>122</c:v>
+                  <c:v>1581.2883999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2294,7 +2324,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -2303,143 +2335,188 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:8">
       <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>45</v>
+      <c r="C10" t="s">
+        <v>77</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="B11" s="15">
         <v>43070</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="4">
+        <v>43077</v>
+      </c>
+      <c r="D11" s="15">
         <v>43864</v>
       </c>
-      <c r="D11" s="16">
-        <f>(C11- B11) / 360</f>
+      <c r="E11" s="4">
+        <v>43867</v>
+      </c>
+      <c r="F11" s="16">
+        <f>(D11- B11) / 360</f>
         <v>2.2055555555555557</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="G11">
+        <f>(E11-C11)/360</f>
+        <v>2.1944444444444446</v>
+      </c>
+      <c r="H11">
+        <f>(C11-B11)/360</f>
+        <v>1.9444444444444445E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="1:8">
+      <c r="B13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="G14" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="B15" s="17">
         <v>2642.22</v>
       </c>
       <c r="C15" s="16">
-        <f>-LN('Caculation of Parameters'!C10) / 'Main Result'!D11</f>
+        <f>-LN('Caculation of Parameters'!C10) / 'Main Result'!F11</f>
         <v>1.9382664115765454E-2</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15">
+        <f>-LN('Caculation of Parameters'!I10)/'Main Result'!G11</f>
+        <v>1.9368890404807357E-2</v>
+      </c>
+      <c r="E15">
+        <f>-LN('Term Structure'!G4)/'Term Structure'!B4</f>
+        <v>1.4283617917238936E-2</v>
+      </c>
+      <c r="F15" s="16">
         <f>SUM(Dividend!E2:E27)</f>
         <v>112.03308889355326</v>
       </c>
+      <c r="G15">
+        <f>LN(EXP(C15*F11)*F15/B15 + 1)/F11</f>
+        <v>1.9633079138697277E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="B17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
         <v>49</v>
-      </c>
-      <c r="H18" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="13">
         <f>$B$15</f>
         <v>2642.22</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="13">
         <f>1.1375 * $B$15</f>
         <v>3005.5252499999997</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" s="13">
         <f>0.875 * $B$15</f>
@@ -2471,161 +2548,161 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="13">
-        <f>(LN($B$15/C19)+($C$15+0.5*C20^2)*$D$11)/(C20*SQRT($D$11))</f>
-        <v>0.29791620649282535</v>
+        <f>(LN($B$15/C19)+($C$15-G15-0.5*C20^2)*$F$11)/(C20*SQRT($F$11))</f>
+        <v>-0.12272489772128013</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="13">
-        <f>(LN($B$15/F19)+($C$15+0.5*F20^2)*$D$11)/(F20*SQRT($D$11))</f>
-        <v>-0.34316178042659928</v>
+        <f>(LN($B$15/F19)+($C$15-G15+0.5*F20^2)*$F$11)/(F20*SQRT($F$11))</f>
+        <v>-0.56489663146229296</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" s="13">
-        <f>(LN($B$15/I19)+($C$15+0.5*I20^2)*$D$11)/(I20*SQRT($D$11))</f>
-        <v>0.79447992824185854</v>
+        <f>(LN($B$15/I19)+($C$15-G15+0.5*I20^2)*$F$11)/(I20*SQRT($F$11))</f>
+        <v>0.63206936050234996</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="13">
-        <f>C21 - C20 * SQRT($D$11)</f>
-        <v>5.7052441201828952E-2</v>
+        <f>C21 - C20 * SQRT($F$11)</f>
+        <v>-0.36358866301227655</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="13">
-        <f>F21 - F20 * SQRT($D$11)</f>
-        <v>-0.53844838767286018</v>
+        <f>F21 - F20 * SQRT($F$11)</f>
+        <v>-0.76018323870855387</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" s="13">
-        <f>I21 - I20 * SQRT($D$11)</f>
-        <v>0.52786029030999826</v>
+        <f>I21 - I20 * SQRT($F$11)</f>
+        <v>0.36544972257048963</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="13">
-        <f>$B$15 * _xlfn.NORM.DIST(C21, 0, 1, 1) - C19 * EXP(-$C$15 * $D$11) * _xlfn.NORM.DIST(C22, 0, 1, 1) - $D$15</f>
-        <v>195.11037152188663</v>
+        <f>EXP(-D15*G11)*(B15*EXP((C15-G15)*F11)*_xlfn.NORM.DIST(C21,0,1,1) - C19*_xlfn.NORM.DIST(C22,0,1,1))</f>
+        <v>235.07242091625997</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="13">
-        <f>$B$15 * _xlfn.NORM.DIST(F21, 0, 1, 1) - F19 * EXP(-$C$15 * $D$11) * _xlfn.NORM.DIST(F22, 0, 1, 1) - $D$15</f>
-        <v>4.4172907971975093</v>
+        <f>EXP(D15*G11)*(B15*EXP((C15-G15)*F11)*_xlfn.NORM.DIST(F21,0,1,1) - F19*_xlfn.NORM.DIST(F22,0,1,1))</f>
+        <v>87.120387629647098</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="13">
-        <f>-$B$15 * _xlfn.NORM.DIST(-I21, 0, 1, 1) + I19 * EXP(-$C$15 * $D$11) * _xlfn.NORM.DIST(-I22, 0, 1, 1) + D15</f>
-        <v>209.92489421763247</v>
+        <f>EXP(-D15*G11)*(I19*_xlfn.NORM.DIST(-I22,0,1,1) - B15*EXP((C15-G15)*F11)*_xlfn.NORM.DIST(-I21,0,1,1))</f>
+        <v>124.56023578133761</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C24">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F24">
-        <v>-1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I24">
-        <v>-1.1429</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="18">
-        <f>1000 * 'Caculation of Parameters'!C10</f>
-        <v>958.15133618483571</v>
+        <f>1000 * EXP(-D15*G11)</f>
+        <v>958.38667610632001</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="18">
-        <f>C24*C23 + F24*F23 + I24*I23 + C27</f>
-        <v>1023.3371037430062</v>
+        <f>(C24*C23 + F24*F23 + I24*I23 + C27)*EXP(E15*H11)</f>
+        <v>993.87299168130426</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="B37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="B42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2643,15 +2720,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2676,17 +2753,17 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10">
-        <v>100</v>
+        <v>2642.22</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2711,27 +2788,27 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <f>A13*$B$10</f>
+        <f t="shared" ref="B13:B44" si="0">A13*$B$10</f>
         <v>0</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D13">
-        <f>1.6 *MAX(0, B13-$B$10)</f>
+        <f t="shared" ref="D13:D44" si="1">1.6 *MAX(0, B13-$B$10)</f>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>-1.6*MAX(0, B13 - 1.1375 *$B$10)</f>
+        <f t="shared" ref="E13:E44" si="2">-1.6*MAX(0, B13 - 1.1375 *$B$10)</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B13)</f>
-        <v>-100.00375</v>
+        <f>-0.43 *MAX(0, 0.875*$B$10 - B13)</f>
+        <v>-994.13527499999987</v>
       </c>
       <c r="G13">
         <f>SUM(C13:F13)</f>
-        <v>-3.7499999999965894E-3</v>
+        <v>5.864725000000135</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2739,27 +2816,27 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="B14">
-        <f>A14*$B$10</f>
-        <v>1.25</v>
+        <f t="shared" si="0"/>
+        <v>33.027749999999997</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D14">
-        <f>1.6 *MAX(0, B14-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>-1.6*MAX(0, B14 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B14)</f>
-        <v>-98.575125</v>
+        <f t="shared" ref="F14:F77" si="3">-0.43 *MAX(0, 0.875*$B$10 - B14)</f>
+        <v>-979.93334249999975</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G53" si="0">SUM(C14:F14)</f>
-        <v>1.4248750000000001</v>
+        <f t="shared" ref="G14:G53" si="4">SUM(C14:F14)</f>
+        <v>20.066657500000247</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2767,27 +2844,27 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B15">
-        <f>A15*$B$10</f>
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>66.055499999999995</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D15">
-        <f>1.6 *MAX(0, B15-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>-1.6*MAX(0, B15 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B15)</f>
-        <v>-97.146500000000003</v>
+        <f t="shared" si="3"/>
+        <v>-965.73140999999987</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>2.8534999999999968</v>
+        <f t="shared" si="4"/>
+        <v>34.268590000000131</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2795,27 +2872,27 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="B16">
-        <f>A16*$B$10</f>
-        <v>3.75</v>
+        <f t="shared" si="0"/>
+        <v>99.083249999999992</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D16">
-        <f>1.6 *MAX(0, B16-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f>-1.6*MAX(0, B16 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B16)</f>
-        <v>-95.717875000000006</v>
+        <f t="shared" si="3"/>
+        <v>-951.52947749999976</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>4.2821249999999935</v>
+        <f t="shared" si="4"/>
+        <v>48.470522500000243</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2823,27 +2900,27 @@
         <v>0.05</v>
       </c>
       <c r="B17">
-        <f>A17*$B$10</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>132.11099999999999</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D17">
-        <f>1.6 *MAX(0, B17-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>-1.6*MAX(0, B17 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B17)</f>
-        <v>-94.289249999999996</v>
+        <f t="shared" si="3"/>
+        <v>-937.32754499999987</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>5.7107500000000044</v>
+        <f t="shared" si="4"/>
+        <v>62.672455000000127</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2851,27 +2928,27 @@
         <v>6.25E-2</v>
       </c>
       <c r="B18">
-        <f>A18*$B$10</f>
-        <v>6.25</v>
+        <f t="shared" si="0"/>
+        <v>165.13874999999999</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D18">
-        <f>1.6 *MAX(0, B18-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>-1.6*MAX(0, B18 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B18)</f>
-        <v>-92.860624999999999</v>
+        <f t="shared" si="3"/>
+        <v>-923.12561249999976</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>7.1393750000000011</v>
+        <f t="shared" si="4"/>
+        <v>76.874387500000239</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2879,27 +2956,27 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="B19">
-        <f>A19*$B$10</f>
-        <v>7.5</v>
+        <f t="shared" si="0"/>
+        <v>198.16649999999998</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D19">
-        <f>1.6 *MAX(0, B19-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>-1.6*MAX(0, B19 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F19">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B19)</f>
-        <v>-91.432000000000002</v>
+        <f t="shared" si="3"/>
+        <v>-908.92367999999988</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>8.5679999999999978</v>
+        <f t="shared" si="4"/>
+        <v>91.076320000000123</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2907,27 +2984,27 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="B20">
-        <f>A20*$B$10</f>
-        <v>8.75</v>
+        <f t="shared" si="0"/>
+        <v>231.19424999999995</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D20">
-        <f>1.6 *MAX(0, B20-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>-1.6*MAX(0, B20 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B20)</f>
-        <v>-90.003375000000005</v>
+        <f t="shared" si="3"/>
+        <v>-894.72174749999988</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>9.9966249999999945</v>
+        <f t="shared" si="4"/>
+        <v>105.27825250000012</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2935,27 +3012,27 @@
         <v>0.1</v>
       </c>
       <c r="B21">
-        <f>A21*$B$10</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>264.22199999999998</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D21">
-        <f>1.6 *MAX(0, B21-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>-1.6*MAX(0, B21 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F21">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B21)</f>
-        <v>-88.574750000000009</v>
+        <f t="shared" si="3"/>
+        <v>-880.51981499999988</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>11.425249999999991</v>
+        <f t="shared" si="4"/>
+        <v>119.48018500000012</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2963,27 +3040,27 @@
         <v>0.1125</v>
       </c>
       <c r="B22">
-        <f>A22*$B$10</f>
-        <v>11.25</v>
+        <f t="shared" si="0"/>
+        <v>297.24975000000001</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D22">
-        <f>1.6 *MAX(0, B22-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>-1.6*MAX(0, B22 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B22)</f>
-        <v>-87.146124999999998</v>
+        <f t="shared" si="3"/>
+        <v>-866.31788249999988</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>12.853875000000002</v>
+        <f t="shared" si="4"/>
+        <v>133.68211750000012</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2991,27 +3068,27 @@
         <v>0.125</v>
       </c>
       <c r="B23">
-        <f>A23*$B$10</f>
-        <v>12.5</v>
+        <f t="shared" si="0"/>
+        <v>330.27749999999997</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D23">
-        <f>1.6 *MAX(0, B23-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>-1.6*MAX(0, B23 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B23)</f>
-        <v>-85.717500000000001</v>
+        <f t="shared" si="3"/>
+        <v>-852.11594999999988</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>14.282499999999999</v>
+        <f t="shared" si="4"/>
+        <v>147.88405000000012</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3019,27 +3096,27 @@
         <v>0.13750000000000001</v>
       </c>
       <c r="B24">
-        <f>A24*$B$10</f>
-        <v>13.750000000000002</v>
+        <f t="shared" si="0"/>
+        <v>363.30525</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D24">
-        <f>1.6 *MAX(0, B24-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>-1.6*MAX(0, B24 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B24)</f>
-        <v>-84.288875000000004</v>
+        <f t="shared" si="3"/>
+        <v>-837.91401749999989</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
-        <v>15.711124999999996</v>
+        <f t="shared" si="4"/>
+        <v>162.08598250000011</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3047,27 +3124,27 @@
         <v>0.15</v>
       </c>
       <c r="B25">
-        <f>A25*$B$10</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>396.33299999999997</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D25">
-        <f>1.6 *MAX(0, B25-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>-1.6*MAX(0, B25 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B25)</f>
-        <v>-82.860250000000008</v>
+        <f t="shared" si="3"/>
+        <v>-823.71208499999977</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
-        <v>17.139749999999992</v>
+        <f t="shared" si="4"/>
+        <v>176.28791500000023</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3075,27 +3152,27 @@
         <v>0.16250000000000001</v>
       </c>
       <c r="B26">
-        <f>A26*$B$10</f>
-        <v>16.25</v>
+        <f t="shared" si="0"/>
+        <v>429.36075</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D26">
-        <f>1.6 *MAX(0, B26-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>-1.6*MAX(0, B26 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B26)</f>
-        <v>-81.431624999999997</v>
+        <f t="shared" si="3"/>
+        <v>-809.51015249999978</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
-        <v>18.568375000000003</v>
+        <f t="shared" si="4"/>
+        <v>190.48984750000022</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3103,27 +3180,27 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="B27">
-        <f>A27*$B$10</f>
-        <v>17.5</v>
+        <f t="shared" si="0"/>
+        <v>462.38849999999991</v>
       </c>
       <c r="C27">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D27">
-        <f>1.6 *MAX(0, B27-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>-1.6*MAX(0, B27 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B27)</f>
-        <v>-80.003</v>
+        <f t="shared" si="3"/>
+        <v>-795.30821999999978</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
-        <v>19.997</v>
+        <f t="shared" si="4"/>
+        <v>204.69178000000022</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3131,27 +3208,27 @@
         <v>0.1875</v>
       </c>
       <c r="B28">
-        <f>A28*$B$10</f>
-        <v>18.75</v>
+        <f t="shared" si="0"/>
+        <v>495.41624999999999</v>
       </c>
       <c r="C28">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D28">
-        <f>1.6 *MAX(0, B28-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>-1.6*MAX(0, B28 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B28)</f>
-        <v>-78.574375000000003</v>
+        <f t="shared" si="3"/>
+        <v>-781.10628749999989</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
-        <v>21.425624999999997</v>
+        <f t="shared" si="4"/>
+        <v>218.89371250000011</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3159,27 +3236,27 @@
         <v>0.2</v>
       </c>
       <c r="B29">
-        <f>A29*$B$10</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>528.44399999999996</v>
       </c>
       <c r="C29">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D29">
-        <f>1.6 *MAX(0, B29-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>-1.6*MAX(0, B29 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B29)</f>
-        <v>-77.145750000000007</v>
+        <f t="shared" si="3"/>
+        <v>-766.9043549999999</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
-        <v>22.854249999999993</v>
+        <f t="shared" si="4"/>
+        <v>233.0956450000001</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3187,27 +3264,27 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="B30">
-        <f>A30*$B$10</f>
-        <v>21.25</v>
+        <f t="shared" si="0"/>
+        <v>561.47174999999993</v>
       </c>
       <c r="C30">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D30">
-        <f>1.6 *MAX(0, B30-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>-1.6*MAX(0, B30 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B30)</f>
-        <v>-75.717124999999996</v>
+        <f t="shared" si="3"/>
+        <v>-752.7024224999999</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
-        <v>24.282875000000004</v>
+        <f t="shared" si="4"/>
+        <v>247.2975775000001</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3215,27 +3292,27 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="B31">
-        <f>A31*$B$10</f>
-        <v>22.5</v>
+        <f t="shared" si="0"/>
+        <v>594.49950000000001</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D31">
-        <f>1.6 *MAX(0, B31-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f>-1.6*MAX(0, B31 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B31)</f>
-        <v>-74.288499999999999</v>
+        <f t="shared" si="3"/>
+        <v>-738.5004899999999</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
-        <v>25.711500000000001</v>
+        <f t="shared" si="4"/>
+        <v>261.4995100000001</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3243,27 +3320,27 @@
         <v>0.23749999999999999</v>
       </c>
       <c r="B32">
-        <f>A32*$B$10</f>
-        <v>23.75</v>
+        <f t="shared" si="0"/>
+        <v>627.52724999999987</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D32">
-        <f>1.6 *MAX(0, B32-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f>-1.6*MAX(0, B32 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B32)</f>
-        <v>-72.859875000000002</v>
+        <f t="shared" si="3"/>
+        <v>-724.2985574999999</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
-        <v>27.140124999999998</v>
+        <f t="shared" si="4"/>
+        <v>275.7014425000001</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3271,27 +3348,27 @@
         <v>0.25</v>
       </c>
       <c r="B33">
-        <f>A33*$B$10</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>660.55499999999995</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D33">
-        <f>1.6 *MAX(0, B33-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>-1.6*MAX(0, B33 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B33)</f>
-        <v>-71.431250000000006</v>
+        <f t="shared" si="3"/>
+        <v>-710.0966249999999</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
-        <v>28.568749999999994</v>
+        <f t="shared" si="4"/>
+        <v>289.9033750000001</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3299,27 +3376,27 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="B34">
-        <f>A34*$B$10</f>
-        <v>26.25</v>
+        <f t="shared" si="0"/>
+        <v>693.58275000000003</v>
       </c>
       <c r="C34">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D34">
-        <f>1.6 *MAX(0, B34-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>-1.6*MAX(0, B34 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B34)</f>
-        <v>-70.002624999999995</v>
+        <f t="shared" si="3"/>
+        <v>-695.89469249999979</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
-        <v>29.997375000000005</v>
+        <f t="shared" si="4"/>
+        <v>304.10530750000021</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3327,27 +3404,27 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="B35">
-        <f>A35*$B$10</f>
-        <v>27.500000000000004</v>
+        <f t="shared" si="0"/>
+        <v>726.6105</v>
       </c>
       <c r="C35">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D35">
-        <f>1.6 *MAX(0, B35-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>-1.6*MAX(0, B35 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B35)</f>
-        <v>-68.573999999999998</v>
+        <f t="shared" si="3"/>
+        <v>-681.69275999999979</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
-        <v>31.426000000000002</v>
+        <f t="shared" si="4"/>
+        <v>318.30724000000021</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3355,27 +3432,27 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="B36">
-        <f>A36*$B$10</f>
-        <v>28.749999999999996</v>
+        <f t="shared" si="0"/>
+        <v>759.63824999999986</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D36">
-        <f>1.6 *MAX(0, B36-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>-1.6*MAX(0, B36 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B36)</f>
-        <v>-67.145375000000001</v>
+        <f t="shared" si="3"/>
+        <v>-667.49082749999991</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
-        <v>32.854624999999999</v>
+        <f t="shared" si="4"/>
+        <v>332.50917250000009</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3383,27 +3460,27 @@
         <v>0.3</v>
       </c>
       <c r="B37">
-        <f>A37*$B$10</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>792.66599999999994</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D37">
-        <f>1.6 *MAX(0, B37-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f>-1.6*MAX(0, B37 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B37)</f>
-        <v>-65.716750000000005</v>
+        <f t="shared" si="3"/>
+        <v>-653.28889499999991</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
-        <v>34.283249999999995</v>
+        <f t="shared" si="4"/>
+        <v>346.71110500000009</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3411,27 +3488,27 @@
         <v>0.3125</v>
       </c>
       <c r="B38">
-        <f>A38*$B$10</f>
-        <v>31.25</v>
+        <f t="shared" si="0"/>
+        <v>825.69374999999991</v>
       </c>
       <c r="C38">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D38">
-        <f>1.6 *MAX(0, B38-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f>-1.6*MAX(0, B38 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B38)</f>
-        <v>-64.288125000000008</v>
+        <f t="shared" si="3"/>
+        <v>-639.08696249999991</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
-        <v>35.711874999999992</v>
+        <f t="shared" si="4"/>
+        <v>360.91303750000009</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3439,27 +3516,27 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="B39">
-        <f>A39*$B$10</f>
-        <v>32.5</v>
+        <f t="shared" si="0"/>
+        <v>858.72149999999999</v>
       </c>
       <c r="C39">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D39">
-        <f>1.6 *MAX(0, B39-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f>-1.6*MAX(0, B39 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F39">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B39)</f>
-        <v>-62.859500000000004</v>
+        <f t="shared" si="3"/>
+        <v>-624.8850299999998</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
-        <v>37.140499999999996</v>
+        <f t="shared" si="4"/>
+        <v>375.1149700000002</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3467,27 +3544,27 @@
         <v>0.33750000000000002</v>
       </c>
       <c r="B40">
-        <f>A40*$B$10</f>
-        <v>33.75</v>
+        <f t="shared" si="0"/>
+        <v>891.74924999999996</v>
       </c>
       <c r="C40">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D40">
-        <f>1.6 *MAX(0, B40-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f>-1.6*MAX(0, B40 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F40">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B40)</f>
-        <v>-61.430875</v>
+        <f t="shared" si="3"/>
+        <v>-610.68309749999992</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
-        <v>38.569125</v>
+        <f t="shared" si="4"/>
+        <v>389.31690250000008</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3495,27 +3572,27 @@
         <v>0.35</v>
       </c>
       <c r="B41">
-        <f>A41*$B$10</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>924.77699999999982</v>
       </c>
       <c r="C41">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D41">
-        <f>1.6 *MAX(0, B41-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f>-1.6*MAX(0, B41 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F41">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B41)</f>
-        <v>-60.002250000000004</v>
+        <f t="shared" si="3"/>
+        <v>-596.48116499999992</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
-        <v>39.997749999999996</v>
+        <f t="shared" si="4"/>
+        <v>403.51883500000008</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3523,27 +3600,27 @@
         <v>0.36249999999999999</v>
       </c>
       <c r="B42">
-        <f>A42*$B$10</f>
-        <v>36.25</v>
+        <f t="shared" si="0"/>
+        <v>957.8047499999999</v>
       </c>
       <c r="C42">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D42">
-        <f>1.6 *MAX(0, B42-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f>-1.6*MAX(0, B42 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F42">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B42)</f>
-        <v>-58.573625</v>
+        <f t="shared" si="3"/>
+        <v>-582.27923249999992</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
-        <v>41.426375</v>
+        <f t="shared" si="4"/>
+        <v>417.72076750000008</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3551,27 +3628,27 @@
         <v>0.375</v>
       </c>
       <c r="B43">
-        <f>A43*$B$10</f>
-        <v>37.5</v>
+        <f t="shared" si="0"/>
+        <v>990.83249999999998</v>
       </c>
       <c r="C43">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D43">
-        <f>1.6 *MAX(0, B43-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f>-1.6*MAX(0, B43 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B43)</f>
-        <v>-57.145000000000003</v>
+        <f t="shared" si="3"/>
+        <v>-568.07729999999981</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
-        <v>42.854999999999997</v>
+        <f t="shared" si="4"/>
+        <v>431.92270000000019</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3579,27 +3656,27 @@
         <v>0.38750000000000001</v>
       </c>
       <c r="B44">
-        <f>A44*$B$10</f>
-        <v>38.75</v>
+        <f t="shared" si="0"/>
+        <v>1023.86025</v>
       </c>
       <c r="C44">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D44">
-        <f>1.6 *MAX(0, B44-$B$10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f>-1.6*MAX(0, B44 - 1.1375 *$B$10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F44">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B44)</f>
-        <v>-55.716374999999999</v>
+        <f t="shared" si="3"/>
+        <v>-553.87536749999981</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
-        <v>44.283625000000001</v>
+        <f t="shared" si="4"/>
+        <v>446.12463250000019</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3607,27 +3684,27 @@
         <v>0.4</v>
       </c>
       <c r="B45">
-        <f>A45*$B$10</f>
-        <v>40</v>
+        <f t="shared" ref="B45:B76" si="5">A45*$B$10</f>
+        <v>1056.8879999999999</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D45">
-        <f>1.6 *MAX(0, B45-$B$10)</f>
+        <f t="shared" ref="D45:D76" si="6">1.6 *MAX(0, B45-$B$10)</f>
         <v>0</v>
       </c>
       <c r="E45">
-        <f>-1.6*MAX(0, B45 - 1.1375 *$B$10)</f>
+        <f t="shared" ref="E45:E76" si="7">-1.6*MAX(0, B45 - 1.1375 *$B$10)</f>
         <v>0</v>
       </c>
       <c r="F45">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B45)</f>
-        <v>-54.287750000000003</v>
+        <f t="shared" si="3"/>
+        <v>-539.67343499999993</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
-        <v>45.712249999999997</v>
+        <f t="shared" si="4"/>
+        <v>460.32656500000007</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3635,27 +3712,27 @@
         <v>0.41249999999999998</v>
       </c>
       <c r="B46">
-        <f>A46*$B$10</f>
-        <v>41.25</v>
+        <f t="shared" si="5"/>
+        <v>1089.9157499999999</v>
       </c>
       <c r="C46">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D46">
-        <f>1.6 *MAX(0, B46-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f>-1.6*MAX(0, B46 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F46">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B46)</f>
-        <v>-52.859124999999999</v>
+        <f t="shared" si="3"/>
+        <v>-525.47150249999993</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
-        <v>47.140875000000001</v>
+        <f t="shared" si="4"/>
+        <v>474.52849750000007</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3663,27 +3740,27 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="B47">
-        <f>A47*$B$10</f>
-        <v>42.5</v>
+        <f t="shared" si="5"/>
+        <v>1122.9434999999999</v>
       </c>
       <c r="C47">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D47">
-        <f>1.6 *MAX(0, B47-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f>-1.6*MAX(0, B47 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F47">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B47)</f>
-        <v>-51.430500000000002</v>
+        <f t="shared" si="3"/>
+        <v>-511.26956999999993</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
-        <v>48.569499999999998</v>
+        <f t="shared" si="4"/>
+        <v>488.73043000000007</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3691,27 +3768,27 @@
         <v>0.4375</v>
       </c>
       <c r="B48">
-        <f>A48*$B$10</f>
-        <v>43.75</v>
+        <f t="shared" si="5"/>
+        <v>1155.9712499999998</v>
       </c>
       <c r="C48">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D48">
-        <f>1.6 *MAX(0, B48-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f>-1.6*MAX(0, B48 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F48">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B48)</f>
-        <v>-50.001874999999998</v>
+        <f t="shared" si="3"/>
+        <v>-497.06763749999993</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
-        <v>49.998125000000002</v>
+        <f t="shared" si="4"/>
+        <v>502.93236250000007</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3719,27 +3796,27 @@
         <v>0.45</v>
       </c>
       <c r="B49">
-        <f>A49*$B$10</f>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>1188.999</v>
       </c>
       <c r="C49">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D49">
-        <f>1.6 *MAX(0, B49-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f>-1.6*MAX(0, B49 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F49">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B49)</f>
-        <v>-48.573250000000002</v>
+        <f t="shared" si="3"/>
+        <v>-482.86570499999982</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
-        <v>51.426749999999998</v>
+        <f t="shared" si="4"/>
+        <v>517.13429500000018</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3747,27 +3824,27 @@
         <v>0.46250000000000002</v>
       </c>
       <c r="B50">
-        <f>A50*$B$10</f>
-        <v>46.25</v>
+        <f t="shared" si="5"/>
+        <v>1222.02675</v>
       </c>
       <c r="C50">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D50">
-        <f>1.6 *MAX(0, B50-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f>-1.6*MAX(0, B50 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F50">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B50)</f>
-        <v>-47.144624999999998</v>
+        <f t="shared" si="3"/>
+        <v>-468.66377249999982</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
-        <v>52.855375000000002</v>
+        <f t="shared" si="4"/>
+        <v>531.33622750000018</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3775,27 +3852,27 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="B51">
-        <f>A51*$B$10</f>
-        <v>47.5</v>
+        <f t="shared" si="5"/>
+        <v>1255.0544999999997</v>
       </c>
       <c r="C51">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D51">
-        <f>1.6 *MAX(0, B51-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f>-1.6*MAX(0, B51 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F51">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B51)</f>
-        <v>-45.716000000000001</v>
+        <f t="shared" si="3"/>
+        <v>-454.46183999999994</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
-        <v>54.283999999999999</v>
+        <f t="shared" si="4"/>
+        <v>545.53816000000006</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3803,27 +3880,27 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="B52">
-        <f>A52*$B$10</f>
-        <v>48.75</v>
+        <f t="shared" si="5"/>
+        <v>1288.0822499999999</v>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D52">
-        <f>1.6 *MAX(0, B52-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f>-1.6*MAX(0, B52 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F52">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B52)</f>
-        <v>-44.287375000000004</v>
+        <f t="shared" si="3"/>
+        <v>-440.25990749999988</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
-        <v>55.712624999999996</v>
+        <f t="shared" si="4"/>
+        <v>559.74009250000017</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3831,27 +3908,27 @@
         <v>0.5</v>
       </c>
       <c r="B53">
-        <f>A53*$B$10</f>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>1321.11</v>
       </c>
       <c r="C53">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D53">
-        <f>1.6 *MAX(0, B53-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f>-1.6*MAX(0, B53 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F53">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B53)</f>
-        <v>-42.858750000000001</v>
+        <f t="shared" si="3"/>
+        <v>-426.05797499999989</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
-        <v>57.141249999999999</v>
+        <f t="shared" si="4"/>
+        <v>573.94202500000006</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3859,27 +3936,27 @@
         <v>0.51249999999999996</v>
       </c>
       <c r="B54">
-        <f>A54*$B$10</f>
-        <v>51.249999999999993</v>
+        <f t="shared" si="5"/>
+        <v>1354.1377499999999</v>
       </c>
       <c r="C54">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D54">
-        <f>1.6 *MAX(0, B54-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f>-1.6*MAX(0, B54 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F54">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B54)</f>
-        <v>-41.430125000000011</v>
+        <f t="shared" si="3"/>
+        <v>-411.85604249999989</v>
       </c>
       <c r="G54">
         <f>SUM(C54:F54)</f>
-        <v>58.569874999999989</v>
+        <v>588.14395750000017</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3887,27 +3964,27 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="B55">
-        <f>A55*$B$10</f>
-        <v>52.5</v>
+        <f t="shared" si="5"/>
+        <v>1387.1655000000001</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D55">
-        <f>1.6 *MAX(0, B55-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f>-1.6*MAX(0, B55 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F55">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B55)</f>
-        <v>-40.0015</v>
+        <f t="shared" si="3"/>
+        <v>-397.65410999999983</v>
       </c>
       <c r="G55">
-        <f t="shared" ref="G55:G65" si="1">SUM(C55:F55)</f>
-        <v>59.9985</v>
+        <f t="shared" ref="G55:G65" si="8">SUM(C55:F55)</f>
+        <v>602.34589000000017</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3915,27 +3992,27 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="B56">
-        <f>A56*$B$10</f>
-        <v>53.75</v>
+        <f t="shared" si="5"/>
+        <v>1420.1932499999998</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D56">
-        <f>1.6 *MAX(0, B56-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f>-1.6*MAX(0, B56 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F56">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B56)</f>
-        <v>-38.572875000000003</v>
+        <f t="shared" si="3"/>
+        <v>-383.45217749999995</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
-        <v>61.427124999999997</v>
+        <f t="shared" si="8"/>
+        <v>616.54782250000005</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3943,27 +4020,27 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B57">
-        <f>A57*$B$10</f>
-        <v>55.000000000000007</v>
+        <f t="shared" si="5"/>
+        <v>1453.221</v>
       </c>
       <c r="C57">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D57">
-        <f>1.6 *MAX(0, B57-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f>-1.6*MAX(0, B57 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F57">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B57)</f>
-        <v>-37.144249999999992</v>
+        <f t="shared" si="3"/>
+        <v>-369.25024499999984</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
-        <v>62.855750000000008</v>
+        <f t="shared" si="8"/>
+        <v>630.74975500000016</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3971,27 +4048,27 @@
         <v>0.5625</v>
       </c>
       <c r="B58">
-        <f>A58*$B$10</f>
-        <v>56.25</v>
+        <f t="shared" si="5"/>
+        <v>1486.24875</v>
       </c>
       <c r="C58">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D58">
-        <f>1.6 *MAX(0, B58-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f>-1.6*MAX(0, B58 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F58">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B58)</f>
-        <v>-35.715625000000003</v>
+        <f t="shared" si="3"/>
+        <v>-355.04831249999984</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
-        <v>64.284374999999997</v>
+        <f t="shared" si="8"/>
+        <v>644.95168750000016</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3999,27 +4076,27 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="B59">
-        <f>A59*$B$10</f>
-        <v>57.499999999999993</v>
+        <f t="shared" si="5"/>
+        <v>1519.2764999999997</v>
       </c>
       <c r="C59">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D59">
-        <f>1.6 *MAX(0, B59-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f>-1.6*MAX(0, B59 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F59">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B59)</f>
-        <v>-34.287000000000006</v>
+        <f t="shared" si="3"/>
+        <v>-340.84637999999995</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
-        <v>65.712999999999994</v>
+        <f t="shared" si="8"/>
+        <v>659.15362000000005</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4027,27 +4104,27 @@
         <v>0.58750000000000002</v>
       </c>
       <c r="B60">
-        <f>A60*$B$10</f>
-        <v>58.75</v>
+        <f t="shared" si="5"/>
+        <v>1552.3042499999999</v>
       </c>
       <c r="C60">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D60">
-        <f>1.6 *MAX(0, B60-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f>-1.6*MAX(0, B60 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F60">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B60)</f>
-        <v>-32.858375000000002</v>
+        <f t="shared" si="3"/>
+        <v>-326.6444474999999</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
-        <v>67.141625000000005</v>
+        <f t="shared" si="8"/>
+        <v>673.35555250000016</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4055,27 +4132,27 @@
         <v>0.6</v>
       </c>
       <c r="B61">
-        <f>A61*$B$10</f>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>1585.3319999999999</v>
       </c>
       <c r="C61">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D61">
-        <f>1.6 *MAX(0, B61-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f>-1.6*MAX(0, B61 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F61">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B61)</f>
-        <v>-31.429750000000002</v>
+        <f t="shared" si="3"/>
+        <v>-312.4425149999999</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
-        <v>68.570250000000001</v>
+        <f t="shared" si="8"/>
+        <v>687.55748500000004</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -4083,27 +4160,27 @@
         <v>0.61250000000000004</v>
       </c>
       <c r="B62">
-        <f>A62*$B$10</f>
-        <v>61.250000000000007</v>
+        <f t="shared" si="5"/>
+        <v>1618.3597500000001</v>
       </c>
       <c r="C62">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D62">
-        <f>1.6 *MAX(0, B62-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E62">
-        <f>-1.6*MAX(0, B62 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F62">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B62)</f>
-        <v>-30.001124999999991</v>
+        <f t="shared" si="3"/>
+        <v>-298.24058249999979</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>69.998875000000012</v>
+        <f t="shared" si="8"/>
+        <v>701.75941750000015</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -4111,27 +4188,27 @@
         <v>0.625</v>
       </c>
       <c r="B63">
-        <f>A63*$B$10</f>
-        <v>62.5</v>
+        <f t="shared" si="5"/>
+        <v>1651.3874999999998</v>
       </c>
       <c r="C63">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D63">
-        <f>1.6 *MAX(0, B63-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f>-1.6*MAX(0, B63 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F63">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B63)</f>
-        <v>-28.572500000000002</v>
+        <f t="shared" si="3"/>
+        <v>-284.0386499999999</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>71.427499999999995</v>
+        <f t="shared" si="8"/>
+        <v>715.96135000000004</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4139,27 +4216,27 @@
         <v>0.63749999999999996</v>
       </c>
       <c r="B64">
-        <f>A64*$B$10</f>
-        <v>63.749999999999993</v>
+        <f t="shared" si="5"/>
+        <v>1684.4152499999998</v>
       </c>
       <c r="C64">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D64">
-        <f>1.6 *MAX(0, B64-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E64">
-        <f>-1.6*MAX(0, B64 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F64">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B64)</f>
-        <v>-27.143875000000008</v>
+        <f t="shared" si="3"/>
+        <v>-269.83671749999996</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>72.856124999999992</v>
+        <f t="shared" si="8"/>
+        <v>730.16328250000004</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -4167,27 +4244,27 @@
         <v>0.65</v>
       </c>
       <c r="B65">
-        <f>A65*$B$10</f>
-        <v>65</v>
+        <f t="shared" si="5"/>
+        <v>1717.443</v>
       </c>
       <c r="C65">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D65">
-        <f>1.6 *MAX(0, B65-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f>-1.6*MAX(0, B65 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F65">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B65)</f>
-        <v>-25.715250000000001</v>
+        <f t="shared" si="3"/>
+        <v>-255.63478499999985</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>74.284750000000003</v>
+        <f t="shared" si="8"/>
+        <v>744.36521500000015</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4195,27 +4272,27 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="B66">
-        <f>A66*$B$10</f>
-        <v>66.25</v>
+        <f t="shared" si="5"/>
+        <v>1750.4707499999997</v>
       </c>
       <c r="C66">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D66">
-        <f>1.6 *MAX(0, B66-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E66">
-        <f>-1.6*MAX(0, B66 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F66">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B66)</f>
-        <v>-24.286625000000001</v>
+        <f t="shared" si="3"/>
+        <v>-241.43285249999997</v>
       </c>
       <c r="G66">
         <f>SUM(C66:F66)</f>
-        <v>75.713374999999999</v>
+        <v>758.56714750000003</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -4223,27 +4300,27 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="B67">
-        <f>A67*$B$10</f>
-        <v>67.5</v>
+        <f t="shared" si="5"/>
+        <v>1783.4984999999999</v>
       </c>
       <c r="C67">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D67">
-        <f>1.6 *MAX(0, B67-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E67">
-        <f>-1.6*MAX(0, B67 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B67)</f>
-        <v>-22.858000000000001</v>
+        <f t="shared" si="3"/>
+        <v>-227.23091999999988</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G82" si="2">SUM(C67:F67)</f>
-        <v>77.141999999999996</v>
+        <f t="shared" ref="G67:G82" si="9">SUM(C67:F67)</f>
+        <v>772.76908000000014</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4251,27 +4328,27 @@
         <v>0.6875</v>
       </c>
       <c r="B68">
-        <f>A68*$B$10</f>
-        <v>68.75</v>
+        <f t="shared" si="5"/>
+        <v>1816.5262499999999</v>
       </c>
       <c r="C68">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D68">
-        <f>1.6 *MAX(0, B68-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f>-1.6*MAX(0, B68 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B68)</f>
-        <v>-21.429375</v>
+        <f t="shared" si="3"/>
+        <v>-213.02898749999989</v>
       </c>
       <c r="G68">
-        <f t="shared" si="2"/>
-        <v>78.570625000000007</v>
+        <f t="shared" si="9"/>
+        <v>786.97101250000014</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4279,27 +4356,27 @@
         <v>0.7</v>
       </c>
       <c r="B69">
-        <f>A69*$B$10</f>
-        <v>70</v>
+        <f t="shared" si="5"/>
+        <v>1849.5539999999996</v>
       </c>
       <c r="C69">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D69">
-        <f>1.6 *MAX(0, B69-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f>-1.6*MAX(0, B69 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F69">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B69)</f>
-        <v>-20.00075</v>
+        <f t="shared" si="3"/>
+        <v>-198.827055</v>
       </c>
       <c r="G69">
-        <f t="shared" si="2"/>
-        <v>79.999250000000004</v>
+        <f t="shared" si="9"/>
+        <v>801.17294500000003</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4307,27 +4384,27 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="B70">
-        <f>A70*$B$10</f>
-        <v>71.25</v>
+        <f t="shared" si="5"/>
+        <v>1882.5817499999998</v>
       </c>
       <c r="C70">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D70">
-        <f>1.6 *MAX(0, B70-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f>-1.6*MAX(0, B70 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B70)</f>
-        <v>-18.572125</v>
+        <f t="shared" si="3"/>
+        <v>-184.62512249999992</v>
       </c>
       <c r="G70">
-        <f t="shared" si="2"/>
-        <v>81.427875</v>
+        <f t="shared" si="9"/>
+        <v>815.37487750000014</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4335,27 +4412,27 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="B71">
-        <f>A71*$B$10</f>
-        <v>72.5</v>
+        <f t="shared" si="5"/>
+        <v>1915.6094999999998</v>
       </c>
       <c r="C71">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D71">
-        <f>1.6 *MAX(0, B71-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f>-1.6*MAX(0, B71 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B71)</f>
-        <v>-17.1435</v>
+        <f t="shared" si="3"/>
+        <v>-170.42318999999995</v>
       </c>
       <c r="G71">
-        <f t="shared" si="2"/>
-        <v>82.856499999999997</v>
+        <f t="shared" si="9"/>
+        <v>829.57681000000002</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4363,27 +4440,27 @@
         <v>0.73750000000000004</v>
       </c>
       <c r="B72">
-        <f>A72*$B$10</f>
-        <v>73.75</v>
+        <f t="shared" si="5"/>
+        <v>1948.63725</v>
       </c>
       <c r="C72">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D72">
-        <f>1.6 *MAX(0, B72-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f>-1.6*MAX(0, B72 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F72">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B72)</f>
-        <v>-15.714875000000001</v>
+        <f t="shared" si="3"/>
+        <v>-156.22125749999987</v>
       </c>
       <c r="G72">
-        <f t="shared" si="2"/>
-        <v>84.285124999999994</v>
+        <f t="shared" si="9"/>
+        <v>843.77874250000013</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4391,27 +4468,27 @@
         <v>0.75</v>
       </c>
       <c r="B73">
-        <f>A73*$B$10</f>
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>1981.665</v>
       </c>
       <c r="C73">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D73">
-        <f>1.6 *MAX(0, B73-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f>-1.6*MAX(0, B73 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B73)</f>
-        <v>-14.286250000000001</v>
+        <f t="shared" si="3"/>
+        <v>-142.01932499999987</v>
       </c>
       <c r="G73">
-        <f t="shared" si="2"/>
-        <v>85.713750000000005</v>
+        <f t="shared" si="9"/>
+        <v>857.98067500000013</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4419,27 +4496,27 @@
         <v>0.76249999999999996</v>
       </c>
       <c r="B74">
-        <f>A74*$B$10</f>
-        <v>76.25</v>
+        <f t="shared" si="5"/>
+        <v>2014.6927499999997</v>
       </c>
       <c r="C74">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D74">
-        <f>1.6 *MAX(0, B74-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f>-1.6*MAX(0, B74 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B74)</f>
-        <v>-12.857625000000001</v>
+        <f t="shared" si="3"/>
+        <v>-127.81739249999998</v>
       </c>
       <c r="G74">
-        <f t="shared" si="2"/>
-        <v>87.142375000000001</v>
+        <f t="shared" si="9"/>
+        <v>872.18260750000002</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4447,27 +4524,27 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="B75">
-        <f>A75*$B$10</f>
-        <v>77.5</v>
+        <f t="shared" si="5"/>
+        <v>2047.7204999999999</v>
       </c>
       <c r="C75">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D75">
-        <f>1.6 *MAX(0, B75-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f>-1.6*MAX(0, B75 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F75">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B75)</f>
-        <v>-11.429</v>
+        <f t="shared" si="3"/>
+        <v>-113.61545999999989</v>
       </c>
       <c r="G75">
-        <f t="shared" si="2"/>
-        <v>88.570999999999998</v>
+        <f t="shared" si="9"/>
+        <v>886.38454000000013</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4475,27 +4552,27 @@
         <v>0.78749999999999998</v>
       </c>
       <c r="B76">
-        <f>A76*$B$10</f>
-        <v>78.75</v>
+        <f t="shared" si="5"/>
+        <v>2080.7482499999996</v>
       </c>
       <c r="C76">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D76">
-        <f>1.6 *MAX(0, B76-$B$10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f>-1.6*MAX(0, B76 - 1.1375 *$B$10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F76">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B76)</f>
-        <v>-10.000375</v>
+        <f t="shared" si="3"/>
+        <v>-99.413527500000001</v>
       </c>
       <c r="G76">
-        <f t="shared" si="2"/>
-        <v>89.999624999999995</v>
+        <f t="shared" si="9"/>
+        <v>900.58647250000001</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4503,27 +4580,27 @@
         <v>0.8</v>
       </c>
       <c r="B77">
-        <f>A77*$B$10</f>
-        <v>80</v>
+        <f t="shared" ref="B77:B108" si="10">A77*$B$10</f>
+        <v>2113.7759999999998</v>
       </c>
       <c r="C77">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D77">
-        <f>1.6 *MAX(0, B77-$B$10)</f>
+        <f t="shared" ref="D77:D108" si="11">1.6 *MAX(0, B77-$B$10)</f>
         <v>0</v>
       </c>
       <c r="E77">
-        <f>-1.6*MAX(0, B77 - 1.1375 *$B$10)</f>
+        <f t="shared" ref="E77:E108" si="12">-1.6*MAX(0, B77 - 1.1375 *$B$10)</f>
         <v>0</v>
       </c>
       <c r="F77">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B77)</f>
-        <v>-8.5717499999999998</v>
+        <f t="shared" si="3"/>
+        <v>-85.211594999999917</v>
       </c>
       <c r="G77">
-        <f t="shared" si="2"/>
-        <v>91.428250000000006</v>
+        <f t="shared" si="9"/>
+        <v>914.78840500000013</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4531,27 +4608,27 @@
         <v>0.8125</v>
       </c>
       <c r="B78">
-        <f>A78*$B$10</f>
-        <v>81.25</v>
+        <f t="shared" si="10"/>
+        <v>2146.80375</v>
       </c>
       <c r="C78">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D78">
-        <f>1.6 *MAX(0, B78-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f>-1.6*MAX(0, B78 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F78">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B78)</f>
-        <v>-7.1431250000000004</v>
+        <f t="shared" ref="F78:F133" si="13">-0.43 *MAX(0, 0.875*$B$10 - B78)</f>
+        <v>-71.009662499999834</v>
       </c>
       <c r="G78">
-        <f t="shared" si="2"/>
-        <v>92.856875000000002</v>
+        <f t="shared" si="9"/>
+        <v>928.99033750000012</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4559,27 +4636,27 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="B79">
-        <f>A79*$B$10</f>
-        <v>82.5</v>
+        <f t="shared" si="10"/>
+        <v>2179.8314999999998</v>
       </c>
       <c r="C79">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D79">
-        <f>1.6 *MAX(0, B79-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f>-1.6*MAX(0, B79 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F79">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B79)</f>
-        <v>-5.7145000000000001</v>
+        <f t="shared" si="13"/>
+        <v>-56.807729999999943</v>
       </c>
       <c r="G79">
-        <f t="shared" si="2"/>
-        <v>94.285499999999999</v>
+        <f t="shared" si="9"/>
+        <v>943.19227000000001</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4587,27 +4664,27 @@
         <v>0.83750000000000002</v>
       </c>
       <c r="B80">
-        <f>A80*$B$10</f>
-        <v>83.75</v>
+        <f t="shared" si="10"/>
+        <v>2212.85925</v>
       </c>
       <c r="C80">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D80">
-        <f>1.6 *MAX(0, B80-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f>-1.6*MAX(0, B80 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F80">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B80)</f>
-        <v>-4.2858749999999999</v>
+        <f t="shared" si="13"/>
+        <v>-42.605797499999859</v>
       </c>
       <c r="G80">
-        <f t="shared" si="2"/>
-        <v>95.714124999999996</v>
+        <f t="shared" si="9"/>
+        <v>957.39420250000012</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4615,27 +4692,27 @@
         <v>0.85</v>
       </c>
       <c r="B81">
-        <f>A81*$B$10</f>
-        <v>85</v>
+        <f t="shared" si="10"/>
+        <v>2245.8869999999997</v>
       </c>
       <c r="C81">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D81">
-        <f>1.6 *MAX(0, B81-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f>-1.6*MAX(0, B81 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F81">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B81)</f>
-        <v>-2.8572500000000001</v>
+        <f t="shared" si="13"/>
+        <v>-28.403864999999971</v>
       </c>
       <c r="G81">
-        <f t="shared" si="2"/>
-        <v>97.142750000000007</v>
+        <f t="shared" si="9"/>
+        <v>971.596135</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4643,27 +4720,27 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="B82">
-        <f>A82*$B$10</f>
-        <v>86.25</v>
+        <f t="shared" si="10"/>
+        <v>2278.9147499999999</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D82">
-        <f>1.6 *MAX(0, B82-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f>-1.6*MAX(0, B82 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F82">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B82)</f>
-        <v>-1.428625</v>
+        <f t="shared" si="13"/>
+        <v>-14.201932499999888</v>
       </c>
       <c r="G82">
-        <f t="shared" si="2"/>
-        <v>98.571375000000003</v>
+        <f t="shared" si="9"/>
+        <v>985.79806750000012</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4671,27 +4748,27 @@
         <v>0.875</v>
       </c>
       <c r="B83">
-        <f>A83*$B$10</f>
-        <v>87.5</v>
+        <f t="shared" si="10"/>
+        <v>2311.9424999999997</v>
       </c>
       <c r="C83">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D83">
-        <f>1.6 *MAX(0, B83-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f>-1.6*MAX(0, B83 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F83">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B83)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G83">
         <f>SUM(C83:F83)</f>
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4699,27 +4776,27 @@
         <v>0.88749999999999996</v>
       </c>
       <c r="B84">
-        <f>A84*$B$10</f>
-        <v>88.75</v>
+        <f t="shared" si="10"/>
+        <v>2344.9702499999999</v>
       </c>
       <c r="C84">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D84">
-        <f>1.6 *MAX(0, B84-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f>-1.6*MAX(0, B84 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F84">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B84)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" ref="G84:G123" si="3">SUM(C84:F84)</f>
-        <v>100</v>
+        <f t="shared" ref="G84:G123" si="14">SUM(C84:F84)</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4727,27 +4804,27 @@
         <v>0.9</v>
       </c>
       <c r="B85">
-        <f>A85*$B$10</f>
-        <v>90</v>
+        <f t="shared" si="10"/>
+        <v>2377.998</v>
       </c>
       <c r="C85">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D85">
-        <f>1.6 *MAX(0, B85-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f>-1.6*MAX(0, B85 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F85">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B85)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4755,27 +4832,27 @@
         <v>0.91249999999999998</v>
       </c>
       <c r="B86">
-        <f>A86*$B$10</f>
-        <v>91.25</v>
+        <f t="shared" si="10"/>
+        <v>2411.0257499999998</v>
       </c>
       <c r="C86">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D86">
-        <f>1.6 *MAX(0, B86-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f>-1.6*MAX(0, B86 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F86">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B86)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G86">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4783,27 +4860,27 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="B87">
-        <f>A87*$B$10</f>
-        <v>92.5</v>
+        <f t="shared" si="10"/>
+        <v>2444.0535</v>
       </c>
       <c r="C87">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D87">
-        <f>1.6 *MAX(0, B87-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f>-1.6*MAX(0, B87 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F87">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B87)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4811,27 +4888,27 @@
         <v>0.9375</v>
       </c>
       <c r="B88">
-        <f>A88*$B$10</f>
-        <v>93.75</v>
+        <f t="shared" si="10"/>
+        <v>2477.0812499999997</v>
       </c>
       <c r="C88">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D88">
-        <f>1.6 *MAX(0, B88-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f>-1.6*MAX(0, B88 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F88">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B88)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G88">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4839,27 +4916,27 @@
         <v>0.95</v>
       </c>
       <c r="B89">
-        <f>A89*$B$10</f>
-        <v>95</v>
+        <f t="shared" si="10"/>
+        <v>2510.1089999999995</v>
       </c>
       <c r="C89">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D89">
-        <f>1.6 *MAX(0, B89-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f>-1.6*MAX(0, B89 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F89">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B89)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G89">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4867,27 +4944,27 @@
         <v>0.96250000000000002</v>
       </c>
       <c r="B90">
-        <f>A90*$B$10</f>
-        <v>96.25</v>
+        <f t="shared" si="10"/>
+        <v>2543.1367499999997</v>
       </c>
       <c r="C90">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D90">
-        <f>1.6 *MAX(0, B90-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f>-1.6*MAX(0, B90 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F90">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B90)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4895,27 +4972,27 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="B91">
-        <f>A91*$B$10</f>
-        <v>97.5</v>
+        <f t="shared" si="10"/>
+        <v>2576.1644999999999</v>
       </c>
       <c r="C91">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D91">
-        <f>1.6 *MAX(0, B91-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f>-1.6*MAX(0, B91 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F91">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B91)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G91">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4923,27 +5000,27 @@
         <v>0.98750000000000004</v>
       </c>
       <c r="B92">
-        <f>A92*$B$10</f>
-        <v>98.75</v>
+        <f t="shared" si="10"/>
+        <v>2609.1922500000001</v>
       </c>
       <c r="C92">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D92">
-        <f>1.6 *MAX(0, B92-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f>-1.6*MAX(0, B92 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F92">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B92)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4951,27 +5028,27 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <f>A93*$B$10</f>
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>2642.22</v>
       </c>
       <c r="C93">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D93">
-        <f>1.6 *MAX(0, B93-$B$10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f>-1.6*MAX(0, B93 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F93">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B93)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4979,27 +5056,27 @@
         <v>1.0125</v>
       </c>
       <c r="B94">
-        <f>A94*$B$10</f>
-        <v>101.25</v>
+        <f t="shared" si="10"/>
+        <v>2675.2477499999995</v>
       </c>
       <c r="C94">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D94">
-        <f>1.6 *MAX(0, B94-$B$10)</f>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>52.844399999999588</v>
       </c>
       <c r="E94">
-        <f>-1.6*MAX(0, B94 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F94">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B94)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="3"/>
-        <v>102</v>
+        <f t="shared" si="14"/>
+        <v>1052.8443999999995</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5007,27 +5084,27 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="B95">
-        <f>A95*$B$10</f>
-        <v>102.49999999999999</v>
+        <f t="shared" si="10"/>
+        <v>2708.2754999999997</v>
       </c>
       <c r="C95">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D95">
-        <f>1.6 *MAX(0, B95-$B$10)</f>
-        <v>3.9999999999999774</v>
+        <f t="shared" si="11"/>
+        <v>105.6887999999999</v>
       </c>
       <c r="E95">
-        <f>-1.6*MAX(0, B95 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F95">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B95)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" si="3"/>
-        <v>103.99999999999997</v>
+        <f t="shared" si="14"/>
+        <v>1105.6887999999999</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5035,27 +5112,27 @@
         <v>1.0375000000000001</v>
       </c>
       <c r="B96">
-        <f>A96*$B$10</f>
-        <v>103.75000000000001</v>
+        <f t="shared" si="10"/>
+        <v>2741.3032499999999</v>
       </c>
       <c r="C96">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D96">
-        <f>1.6 *MAX(0, B96-$B$10)</f>
-        <v>6.0000000000000231</v>
+        <f t="shared" si="11"/>
+        <v>158.53320000000022</v>
       </c>
       <c r="E96">
-        <f>-1.6*MAX(0, B96 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F96">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B96)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="3"/>
-        <v>106.00000000000003</v>
+        <f t="shared" si="14"/>
+        <v>1158.5332000000003</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5063,27 +5140,27 @@
         <v>1.05</v>
       </c>
       <c r="B97">
-        <f>A97*$B$10</f>
-        <v>105</v>
+        <f t="shared" si="10"/>
+        <v>2774.3310000000001</v>
       </c>
       <c r="C97">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D97">
-        <f>1.6 *MAX(0, B97-$B$10)</f>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>211.37760000000054</v>
       </c>
       <c r="E97">
-        <f>-1.6*MAX(0, B97 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F97">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B97)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G97">
-        <f t="shared" si="3"/>
-        <v>108</v>
+        <f t="shared" si="14"/>
+        <v>1211.3776000000005</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5091,27 +5168,27 @@
         <v>1.0625</v>
       </c>
       <c r="B98">
-        <f>A98*$B$10</f>
-        <v>106.25</v>
+        <f t="shared" si="10"/>
+        <v>2807.3587499999999</v>
       </c>
       <c r="C98">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D98">
-        <f>1.6 *MAX(0, B98-$B$10)</f>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>264.22200000000015</v>
       </c>
       <c r="E98">
-        <f>-1.6*MAX(0, B98 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F98">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B98)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G98">
-        <f t="shared" si="3"/>
-        <v>110</v>
+        <f t="shared" si="14"/>
+        <v>1264.2220000000002</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5119,27 +5196,27 @@
         <v>1.075</v>
       </c>
       <c r="B99">
-        <f>A99*$B$10</f>
-        <v>107.5</v>
+        <f t="shared" si="10"/>
+        <v>2840.3864999999996</v>
       </c>
       <c r="C99">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D99">
-        <f>1.6 *MAX(0, B99-$B$10)</f>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>317.0663999999997</v>
       </c>
       <c r="E99">
-        <f>-1.6*MAX(0, B99 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F99">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B99)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G99">
-        <f t="shared" si="3"/>
-        <v>112</v>
+        <f t="shared" si="14"/>
+        <v>1317.0663999999997</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5147,27 +5224,27 @@
         <v>1.0874999999999999</v>
       </c>
       <c r="B100">
-        <f>A100*$B$10</f>
-        <v>108.74999999999999</v>
+        <f t="shared" si="10"/>
+        <v>2873.4142499999994</v>
       </c>
       <c r="C100">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D100">
-        <f>1.6 *MAX(0, B100-$B$10)</f>
-        <v>13.999999999999979</v>
+        <f t="shared" si="11"/>
+        <v>369.91079999999931</v>
       </c>
       <c r="E100">
-        <f>-1.6*MAX(0, B100 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F100">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B100)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G100">
-        <f t="shared" si="3"/>
-        <v>113.99999999999997</v>
+        <f t="shared" si="14"/>
+        <v>1369.9107999999992</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5175,27 +5252,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B101">
-        <f>A101*$B$10</f>
-        <v>110.00000000000001</v>
+        <f t="shared" si="10"/>
+        <v>2906.442</v>
       </c>
       <c r="C101">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D101">
-        <f>1.6 *MAX(0, B101-$B$10)</f>
-        <v>16.000000000000025</v>
+        <f t="shared" si="11"/>
+        <v>422.75520000000034</v>
       </c>
       <c r="E101">
-        <f>-1.6*MAX(0, B101 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F101">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B101)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G101">
-        <f t="shared" si="3"/>
-        <v>116.00000000000003</v>
+        <f t="shared" si="14"/>
+        <v>1422.7552000000003</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5203,27 +5280,27 @@
         <v>1.1125</v>
       </c>
       <c r="B102">
-        <f>A102*$B$10</f>
-        <v>111.25</v>
+        <f t="shared" si="10"/>
+        <v>2939.4697499999997</v>
       </c>
       <c r="C102">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D102">
-        <f>1.6 *MAX(0, B102-$B$10)</f>
-        <v>18</v>
+        <f t="shared" si="11"/>
+        <v>475.59959999999995</v>
       </c>
       <c r="E102">
-        <f>-1.6*MAX(0, B102 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F102">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B102)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G102">
-        <f t="shared" si="3"/>
-        <v>118</v>
+        <f t="shared" si="14"/>
+        <v>1475.5996</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5231,27 +5308,27 @@
         <v>1.125</v>
       </c>
       <c r="B103">
-        <f>A103*$B$10</f>
-        <v>112.5</v>
+        <f t="shared" si="10"/>
+        <v>2972.4974999999999</v>
       </c>
       <c r="C103">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D103">
-        <f>1.6 *MAX(0, B103-$B$10)</f>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>528.4440000000003</v>
       </c>
       <c r="E103">
-        <f>-1.6*MAX(0, B103 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F103">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B103)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G103">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f t="shared" si="14"/>
+        <v>1528.4440000000004</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5259,27 +5336,27 @@
         <v>1.1375</v>
       </c>
       <c r="B104">
-        <f>A104*$B$10</f>
-        <v>113.75</v>
+        <f t="shared" si="10"/>
+        <v>3005.5252499999997</v>
       </c>
       <c r="C104">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D104">
-        <f>1.6 *MAX(0, B104-$B$10)</f>
-        <v>22</v>
+        <f t="shared" si="11"/>
+        <v>581.2883999999998</v>
       </c>
       <c r="E104">
-        <f>-1.6*MAX(0, B104 - 1.1375 *$B$10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F104">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B104)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5287,27 +5364,27 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="B105">
-        <f>A105*$B$10</f>
-        <v>114.99999999999999</v>
+        <f t="shared" si="10"/>
+        <v>3038.5529999999994</v>
       </c>
       <c r="C105">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D105">
-        <f>1.6 *MAX(0, B105-$B$10)</f>
-        <v>23.999999999999979</v>
+        <f t="shared" si="11"/>
+        <v>634.13279999999941</v>
       </c>
       <c r="E105">
-        <f>-1.6*MAX(0, B105 - 1.1375 *$B$10)</f>
-        <v>-1.9999999999999774</v>
+        <f t="shared" si="12"/>
+        <v>-52.844399999999588</v>
       </c>
       <c r="F105">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B105)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G105">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5315,27 +5392,27 @@
         <v>1.1625000000000001</v>
       </c>
       <c r="B106">
-        <f>A106*$B$10</f>
-        <v>116.25000000000001</v>
+        <f t="shared" si="10"/>
+        <v>3071.5807500000001</v>
       </c>
       <c r="C106">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D106">
-        <f>1.6 *MAX(0, B106-$B$10)</f>
-        <v>26.000000000000025</v>
+        <f t="shared" si="11"/>
+        <v>686.97720000000049</v>
       </c>
       <c r="E106">
-        <f>-1.6*MAX(0, B106 - 1.1375 *$B$10)</f>
-        <v>-4.0000000000000231</v>
+        <f t="shared" si="12"/>
+        <v>-105.68880000000064</v>
       </c>
       <c r="F106">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B106)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G106">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5343,27 +5420,27 @@
         <v>1.175</v>
       </c>
       <c r="B107">
-        <f>A107*$B$10</f>
-        <v>117.5</v>
+        <f t="shared" si="10"/>
+        <v>3104.6084999999998</v>
       </c>
       <c r="C107">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D107">
-        <f>1.6 *MAX(0, B107-$B$10)</f>
-        <v>28</v>
+        <f t="shared" si="11"/>
+        <v>739.8216000000001</v>
       </c>
       <c r="E107">
-        <f>-1.6*MAX(0, B107 - 1.1375 *$B$10)</f>
-        <v>-6</v>
+        <f t="shared" si="12"/>
+        <v>-158.53320000000022</v>
       </c>
       <c r="F107">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B107)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G107">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5371,27 +5448,27 @@
         <v>1.1875</v>
       </c>
       <c r="B108">
-        <f>A108*$B$10</f>
-        <v>118.75</v>
+        <f t="shared" si="10"/>
+        <v>3137.6362499999996</v>
       </c>
       <c r="C108">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D108">
-        <f>1.6 *MAX(0, B108-$B$10)</f>
-        <v>30</v>
+        <f t="shared" si="11"/>
+        <v>792.66599999999971</v>
       </c>
       <c r="E108">
-        <f>-1.6*MAX(0, B108 - 1.1375 *$B$10)</f>
-        <v>-8</v>
+        <f t="shared" si="12"/>
+        <v>-211.3775999999998</v>
       </c>
       <c r="F108">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B108)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G108">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5399,27 +5476,27 @@
         <v>1.2</v>
       </c>
       <c r="B109">
-        <f>A109*$B$10</f>
-        <v>120</v>
+        <f t="shared" ref="B109:B140" si="15">A109*$B$10</f>
+        <v>3170.6639999999998</v>
       </c>
       <c r="C109">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D109">
-        <f>1.6 *MAX(0, B109-$B$10)</f>
-        <v>32</v>
+        <f t="shared" ref="D109:D133" si="16">1.6 *MAX(0, B109-$B$10)</f>
+        <v>845.5104</v>
       </c>
       <c r="E109">
-        <f>-1.6*MAX(0, B109 - 1.1375 *$B$10)</f>
-        <v>-10</v>
+        <f t="shared" ref="E109:E133" si="17">-1.6*MAX(0, B109 - 1.1375 *$B$10)</f>
+        <v>-264.22200000000015</v>
       </c>
       <c r="F109">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B109)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G109">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5427,27 +5504,27 @@
         <v>1.2124999999999999</v>
       </c>
       <c r="B110">
-        <f>A110*$B$10</f>
-        <v>121.24999999999999</v>
+        <f t="shared" si="15"/>
+        <v>3203.6917499999995</v>
       </c>
       <c r="C110">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D110">
-        <f>1.6 *MAX(0, B110-$B$10)</f>
-        <v>33.999999999999979</v>
+        <f t="shared" si="16"/>
+        <v>898.35479999999961</v>
       </c>
       <c r="E110">
-        <f>-1.6*MAX(0, B110 - 1.1375 *$B$10)</f>
-        <v>-11.999999999999979</v>
+        <f t="shared" si="17"/>
+        <v>-317.0663999999997</v>
       </c>
       <c r="F110">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B110)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G110">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5455,27 +5532,27 @@
         <v>1.2250000000000001</v>
       </c>
       <c r="B111">
-        <f>A111*$B$10</f>
-        <v>122.50000000000001</v>
+        <f t="shared" si="15"/>
+        <v>3236.7195000000002</v>
       </c>
       <c r="C111">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D111">
-        <f>1.6 *MAX(0, B111-$B$10)</f>
-        <v>36.000000000000021</v>
+        <f t="shared" si="16"/>
+        <v>951.19920000000059</v>
       </c>
       <c r="E111">
-        <f>-1.6*MAX(0, B111 - 1.1375 *$B$10)</f>
-        <v>-14.000000000000023</v>
+        <f t="shared" si="17"/>
+        <v>-369.91080000000079</v>
       </c>
       <c r="F111">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B111)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G111">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999997</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5483,27 +5560,27 @@
         <v>1.2375</v>
       </c>
       <c r="B112">
-        <f>A112*$B$10</f>
-        <v>123.75</v>
+        <f t="shared" si="15"/>
+        <v>3269.7472499999999</v>
       </c>
       <c r="C112">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D112">
-        <f>1.6 *MAX(0, B112-$B$10)</f>
-        <v>38</v>
+        <f t="shared" si="16"/>
+        <v>1004.0436000000002</v>
       </c>
       <c r="E112">
-        <f>-1.6*MAX(0, B112 - 1.1375 *$B$10)</f>
-        <v>-16</v>
+        <f t="shared" si="17"/>
+        <v>-422.75520000000034</v>
       </c>
       <c r="F112">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B112)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G112">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5511,27 +5588,27 @@
         <v>1.25</v>
       </c>
       <c r="B113">
-        <f>A113*$B$10</f>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>3302.7749999999996</v>
       </c>
       <c r="C113">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D113">
-        <f>1.6 *MAX(0, B113-$B$10)</f>
-        <v>40</v>
+        <f t="shared" si="16"/>
+        <v>1056.8879999999997</v>
       </c>
       <c r="E113">
-        <f>-1.6*MAX(0, B113 - 1.1375 *$B$10)</f>
-        <v>-18</v>
+        <f t="shared" si="17"/>
+        <v>-475.59959999999995</v>
       </c>
       <c r="F113">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B113)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G113">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -5539,27 +5616,27 @@
         <v>1.2625</v>
       </c>
       <c r="B114">
-        <f>A114*$B$10</f>
-        <v>126.25</v>
+        <f t="shared" si="15"/>
+        <v>3335.8027499999998</v>
       </c>
       <c r="C114">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D114">
-        <f>1.6 *MAX(0, B114-$B$10)</f>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>1109.7324000000001</v>
       </c>
       <c r="E114">
-        <f>-1.6*MAX(0, B114 - 1.1375 *$B$10)</f>
-        <v>-20</v>
+        <f t="shared" si="17"/>
+        <v>-528.4440000000003</v>
       </c>
       <c r="F114">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B114)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G114">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999995</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -5567,27 +5644,27 @@
         <v>1.2749999999999999</v>
       </c>
       <c r="B115">
-        <f>A115*$B$10</f>
-        <v>127.49999999999999</v>
+        <f t="shared" si="15"/>
+        <v>3368.8304999999996</v>
       </c>
       <c r="C115">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D115">
-        <f>1.6 *MAX(0, B115-$B$10)</f>
-        <v>43.999999999999979</v>
+        <f t="shared" si="16"/>
+        <v>1162.5767999999996</v>
       </c>
       <c r="E115">
-        <f>-1.6*MAX(0, B115 - 1.1375 *$B$10)</f>
-        <v>-21.999999999999979</v>
+        <f t="shared" si="17"/>
+        <v>-581.2883999999998</v>
       </c>
       <c r="F115">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B115)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G115">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5595,27 +5672,27 @@
         <v>1.2875000000000001</v>
       </c>
       <c r="B116">
-        <f>A116*$B$10</f>
-        <v>128.75</v>
+        <f t="shared" si="15"/>
+        <v>3401.8582499999998</v>
       </c>
       <c r="C116">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D116">
-        <f>1.6 *MAX(0, B116-$B$10)</f>
-        <v>46</v>
+        <f t="shared" si="16"/>
+        <v>1215.4212</v>
       </c>
       <c r="E116">
-        <f>-1.6*MAX(0, B116 - 1.1375 *$B$10)</f>
-        <v>-24</v>
+        <f t="shared" si="17"/>
+        <v>-634.1328000000002</v>
       </c>
       <c r="F116">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B116)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G116">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999995</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -5623,27 +5700,27 @@
         <v>1.3</v>
       </c>
       <c r="B117">
-        <f>A117*$B$10</f>
-        <v>130</v>
+        <f t="shared" si="15"/>
+        <v>3434.886</v>
       </c>
       <c r="C117">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D117">
-        <f>1.6 *MAX(0, B117-$B$10)</f>
-        <v>48</v>
+        <f t="shared" si="16"/>
+        <v>1268.2656000000004</v>
       </c>
       <c r="E117">
-        <f>-1.6*MAX(0, B117 - 1.1375 *$B$10)</f>
-        <v>-26</v>
+        <f t="shared" si="17"/>
+        <v>-686.97720000000049</v>
       </c>
       <c r="F117">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B117)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G117">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2884000000001</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5651,27 +5728,27 @@
         <v>1.3125</v>
       </c>
       <c r="B118">
-        <f>A118*$B$10</f>
-        <v>131.25</v>
+        <f t="shared" si="15"/>
+        <v>3467.9137499999997</v>
       </c>
       <c r="C118">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D118">
-        <f>1.6 *MAX(0, B118-$B$10)</f>
-        <v>50</v>
+        <f t="shared" si="16"/>
+        <v>1321.11</v>
       </c>
       <c r="E118">
-        <f>-1.6*MAX(0, B118 - 1.1375 *$B$10)</f>
-        <v>-28</v>
+        <f t="shared" si="17"/>
+        <v>-739.8216000000001</v>
       </c>
       <c r="F118">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B118)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G118">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999995</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5679,27 +5756,27 @@
         <v>1.325</v>
       </c>
       <c r="B119">
-        <f>A119*$B$10</f>
-        <v>132.5</v>
+        <f t="shared" si="15"/>
+        <v>3500.9414999999995</v>
       </c>
       <c r="C119">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D119">
-        <f>1.6 *MAX(0, B119-$B$10)</f>
-        <v>52</v>
+        <f t="shared" si="16"/>
+        <v>1373.9543999999996</v>
       </c>
       <c r="E119">
-        <f>-1.6*MAX(0, B119 - 1.1375 *$B$10)</f>
-        <v>-30</v>
+        <f t="shared" si="17"/>
+        <v>-792.66599999999971</v>
       </c>
       <c r="F119">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B119)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G119">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5707,27 +5784,27 @@
         <v>1.3374999999999999</v>
       </c>
       <c r="B120">
-        <f>A120*$B$10</f>
-        <v>133.75</v>
+        <f t="shared" si="15"/>
+        <v>3533.9692499999996</v>
       </c>
       <c r="C120">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D120">
-        <f>1.6 *MAX(0, B120-$B$10)</f>
-        <v>54</v>
+        <f t="shared" si="16"/>
+        <v>1426.7987999999998</v>
       </c>
       <c r="E120">
-        <f>-1.6*MAX(0, B120 - 1.1375 *$B$10)</f>
-        <v>-32</v>
+        <f t="shared" si="17"/>
+        <v>-845.5104</v>
       </c>
       <c r="F120">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B120)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999995</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5735,27 +5812,27 @@
         <v>1.35</v>
       </c>
       <c r="B121">
-        <f>A121*$B$10</f>
-        <v>135</v>
+        <f t="shared" si="15"/>
+        <v>3566.9969999999998</v>
       </c>
       <c r="C121">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D121">
-        <f>1.6 *MAX(0, B121-$B$10)</f>
-        <v>56</v>
+        <f t="shared" si="16"/>
+        <v>1479.6432000000002</v>
       </c>
       <c r="E121">
-        <f>-1.6*MAX(0, B121 - 1.1375 *$B$10)</f>
-        <v>-34</v>
+        <f t="shared" si="17"/>
+        <v>-898.3548000000003</v>
       </c>
       <c r="F121">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B121)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2884000000001</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5763,27 +5840,27 @@
         <v>1.3625</v>
       </c>
       <c r="B122">
-        <f>A122*$B$10</f>
-        <v>136.25</v>
+        <f t="shared" si="15"/>
+        <v>3600.02475</v>
       </c>
       <c r="C122">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D122">
-        <f>1.6 *MAX(0, B122-$B$10)</f>
-        <v>58</v>
+        <f t="shared" si="16"/>
+        <v>1532.4876000000004</v>
       </c>
       <c r="E122">
-        <f>-1.6*MAX(0, B122 - 1.1375 *$B$10)</f>
-        <v>-36</v>
+        <f t="shared" si="17"/>
+        <v>-951.19920000000059</v>
       </c>
       <c r="F122">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B122)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G122">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5791,27 +5868,27 @@
         <v>1.375</v>
       </c>
       <c r="B123">
-        <f>A123*$B$10</f>
-        <v>137.5</v>
+        <f t="shared" si="15"/>
+        <v>3633.0524999999998</v>
       </c>
       <c r="C123">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D123">
-        <f>1.6 *MAX(0, B123-$B$10)</f>
-        <v>60</v>
+        <f t="shared" si="16"/>
+        <v>1585.3320000000001</v>
       </c>
       <c r="E123">
-        <f>-1.6*MAX(0, B123 - 1.1375 *$B$10)</f>
-        <v>-38</v>
+        <f t="shared" si="17"/>
+        <v>-1004.0436000000002</v>
       </c>
       <c r="F123">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B123)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G123">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="14"/>
+        <v>1581.2884000000001</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5819,27 +5896,27 @@
         <v>1.3875</v>
       </c>
       <c r="B124">
-        <f>A124*$B$10</f>
-        <v>138.75</v>
+        <f t="shared" si="15"/>
+        <v>3666.0802499999995</v>
       </c>
       <c r="C124">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D124">
-        <f>1.6 *MAX(0, B124-$B$10)</f>
-        <v>62</v>
+        <f t="shared" si="16"/>
+        <v>1638.1763999999996</v>
       </c>
       <c r="E124">
-        <f>-1.6*MAX(0, B124 - 1.1375 *$B$10)</f>
-        <v>-40</v>
+        <f t="shared" si="17"/>
+        <v>-1056.8879999999997</v>
       </c>
       <c r="F124">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B124)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G124">
         <f>SUM(C124:F124)</f>
-        <v>122</v>
+        <v>1581.2883999999997</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5847,27 +5924,27 @@
         <v>1.4</v>
       </c>
       <c r="B125">
-        <f>A125*$B$10</f>
-        <v>140</v>
+        <f t="shared" si="15"/>
+        <v>3699.1079999999993</v>
       </c>
       <c r="C125">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D125">
-        <f>1.6 *MAX(0, B125-$B$10)</f>
-        <v>64</v>
+        <f t="shared" si="16"/>
+        <v>1691.0207999999993</v>
       </c>
       <c r="E125">
-        <f>-1.6*MAX(0, B125 - 1.1375 *$B$10)</f>
-        <v>-42</v>
+        <f t="shared" si="17"/>
+        <v>-1109.7323999999994</v>
       </c>
       <c r="F125">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B125)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G125">
-        <f t="shared" ref="G125:G133" si="4">SUM(C125:F125)</f>
-        <v>122</v>
+        <f t="shared" ref="G125:G133" si="18">SUM(C125:F125)</f>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5875,27 +5952,27 @@
         <v>1.4125000000000001</v>
       </c>
       <c r="B126">
-        <f>A126*$B$10</f>
-        <v>141.25</v>
+        <f t="shared" si="15"/>
+        <v>3732.1357499999999</v>
       </c>
       <c r="C126">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D126">
-        <f>1.6 *MAX(0, B126-$B$10)</f>
-        <v>66</v>
+        <f t="shared" si="16"/>
+        <v>1743.8652000000002</v>
       </c>
       <c r="E126">
-        <f>-1.6*MAX(0, B126 - 1.1375 *$B$10)</f>
-        <v>-44</v>
+        <f t="shared" si="17"/>
+        <v>-1162.5768000000005</v>
       </c>
       <c r="F126">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B126)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G126">
-        <f t="shared" si="4"/>
-        <v>122</v>
+        <f t="shared" si="18"/>
+        <v>1581.2883999999997</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5903,27 +5980,27 @@
         <v>1.425</v>
       </c>
       <c r="B127">
-        <f>A127*$B$10</f>
-        <v>142.5</v>
+        <f t="shared" si="15"/>
+        <v>3765.1634999999997</v>
       </c>
       <c r="C127">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D127">
-        <f>1.6 *MAX(0, B127-$B$10)</f>
-        <v>68</v>
+        <f t="shared" si="16"/>
+        <v>1796.7095999999999</v>
       </c>
       <c r="E127">
-        <f>-1.6*MAX(0, B127 - 1.1375 *$B$10)</f>
-        <v>-46</v>
+        <f t="shared" si="17"/>
+        <v>-1215.4212</v>
       </c>
       <c r="F127">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B127)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G127">
-        <f t="shared" si="4"/>
-        <v>122</v>
+        <f t="shared" si="18"/>
+        <v>1581.2884000000001</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5931,27 +6008,27 @@
         <v>1.4375</v>
       </c>
       <c r="B128">
-        <f>A128*$B$10</f>
-        <v>143.75</v>
+        <f t="shared" si="15"/>
+        <v>3798.1912499999999</v>
       </c>
       <c r="C128">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D128">
-        <f>1.6 *MAX(0, B128-$B$10)</f>
-        <v>70</v>
+        <f t="shared" si="16"/>
+        <v>1849.5540000000001</v>
       </c>
       <c r="E128">
-        <f>-1.6*MAX(0, B128 - 1.1375 *$B$10)</f>
-        <v>-48</v>
+        <f t="shared" si="17"/>
+        <v>-1268.2656000000004</v>
       </c>
       <c r="F128">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B128)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G128">
-        <f t="shared" si="4"/>
-        <v>122</v>
+        <f t="shared" si="18"/>
+        <v>1581.2883999999997</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5959,27 +6036,27 @@
         <v>1.45</v>
       </c>
       <c r="B129">
-        <f>A129*$B$10</f>
-        <v>145</v>
+        <f t="shared" si="15"/>
+        <v>3831.2189999999996</v>
       </c>
       <c r="C129">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D129">
-        <f>1.6 *MAX(0, B129-$B$10)</f>
-        <v>72</v>
+        <f t="shared" si="16"/>
+        <v>1902.3983999999998</v>
       </c>
       <c r="E129">
-        <f>-1.6*MAX(0, B129 - 1.1375 *$B$10)</f>
-        <v>-50</v>
+        <f t="shared" si="17"/>
+        <v>-1321.11</v>
       </c>
       <c r="F129">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B129)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G129">
-        <f t="shared" si="4"/>
-        <v>122</v>
+        <f t="shared" si="18"/>
+        <v>1581.2884000000001</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5987,27 +6064,27 @@
         <v>1.4624999999999999</v>
       </c>
       <c r="B130">
-        <f>A130*$B$10</f>
-        <v>146.25</v>
+        <f t="shared" si="15"/>
+        <v>3864.2467499999993</v>
       </c>
       <c r="C130">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D130">
-        <f>1.6 *MAX(0, B130-$B$10)</f>
-        <v>74</v>
+        <f t="shared" si="16"/>
+        <v>1955.2427999999993</v>
       </c>
       <c r="E130">
-        <f>-1.6*MAX(0, B130 - 1.1375 *$B$10)</f>
-        <v>-52</v>
+        <f t="shared" si="17"/>
+        <v>-1373.9543999999996</v>
       </c>
       <c r="F130">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B130)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G130">
-        <f t="shared" si="4"/>
-        <v>122</v>
+        <f t="shared" si="18"/>
+        <v>1581.2883999999995</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -6015,27 +6092,27 @@
         <v>1.4750000000000001</v>
       </c>
       <c r="B131">
-        <f>A131*$B$10</f>
-        <v>147.5</v>
+        <f t="shared" si="15"/>
+        <v>3897.2745</v>
       </c>
       <c r="C131">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D131">
-        <f>1.6 *MAX(0, B131-$B$10)</f>
-        <v>76</v>
+        <f t="shared" si="16"/>
+        <v>2008.0872000000004</v>
       </c>
       <c r="E131">
-        <f>-1.6*MAX(0, B131 - 1.1375 *$B$10)</f>
-        <v>-54</v>
+        <f t="shared" si="17"/>
+        <v>-1426.7988000000005</v>
       </c>
       <c r="F131">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B131)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" si="4"/>
-        <v>122</v>
+        <f t="shared" si="18"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -6043,27 +6120,27 @@
         <v>1.4875</v>
       </c>
       <c r="B132">
-        <f>A132*$B$10</f>
-        <v>148.75</v>
+        <f t="shared" si="15"/>
+        <v>3930.3022499999997</v>
       </c>
       <c r="C132">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D132">
-        <f>1.6 *MAX(0, B132-$B$10)</f>
-        <v>78</v>
+        <f t="shared" si="16"/>
+        <v>2060.9315999999999</v>
       </c>
       <c r="E132">
-        <f>-1.6*MAX(0, B132 - 1.1375 *$B$10)</f>
-        <v>-56</v>
+        <f t="shared" si="17"/>
+        <v>-1479.6432000000002</v>
       </c>
       <c r="F132">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B132)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G132">
-        <f t="shared" si="4"/>
-        <v>122</v>
+        <f t="shared" si="18"/>
+        <v>1581.2883999999997</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -6071,27 +6148,27 @@
         <v>1.5</v>
       </c>
       <c r="B133">
-        <f>A133*$B$10</f>
-        <v>150</v>
+        <f t="shared" si="15"/>
+        <v>3963.33</v>
       </c>
       <c r="C133">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D133">
-        <f>1.6 *MAX(0, B133-$B$10)</f>
-        <v>80</v>
+        <f t="shared" si="16"/>
+        <v>2113.7760000000003</v>
       </c>
       <c r="E133">
-        <f>-1.6*MAX(0, B133 - 1.1375 *$B$10)</f>
-        <v>-58</v>
+        <f t="shared" si="17"/>
+        <v>-1532.4876000000004</v>
       </c>
       <c r="F133">
-        <f>-1.1429 *MAX(0, 0.875*$B$10 - B133)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G133">
-        <f t="shared" si="4"/>
-        <v>122</v>
+        <f t="shared" si="18"/>
+        <v>1581.2883999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6104,10 +6181,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:F31"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6119,59 +6196,87 @@
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:12">
       <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="H2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" s="8">
         <f>'Main Result'!B11</f>
         <v>43070</v>
       </c>
       <c r="C3" s="8">
-        <f>'Main Result'!C11</f>
+        <f>'Main Result'!D11</f>
         <v>43864</v>
       </c>
       <c r="D3" s="10">
-        <f>'Main Result'!D11</f>
+        <f>'Main Result'!F11</f>
         <v>2.2055555555555557</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="H3" s="8">
+        <f>'Main Result'!C11</f>
+        <v>43077</v>
+      </c>
+      <c r="I3" s="8">
+        <f>'Main Result'!E11</f>
+        <v>43867</v>
+      </c>
+      <c r="J3" s="10">
+        <f>'Main Result'!G11</f>
+        <v>2.1944444444444446</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:12">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:12">
+      <c r="B6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="H6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -6185,8 +6290,21 @@
       <c r="F7" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="H7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="9">
         <f>$C$3</f>
         <v>43864</v>
@@ -6206,8 +6324,27 @@
         <f>((B8 - B3) / 360 - D8) / (D9 - D8) * E9</f>
         <v>0.15326578732019883</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="H8" s="8">
+        <f>I3</f>
+        <v>43867</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="10">
+        <f>INDEX('Term Structure'!$B$4:$B$27,MATCH((H$8 - $H$3)/360,'Term Structure'!$B$4:$B$27,1) )</f>
+        <v>2.0388888888888888</v>
+      </c>
+      <c r="K8" s="10">
+        <f>INDEX('Term Structure'!$G$4:$G$27,MATCH(($B$8 - $B$3)/360,'Term Structure'!$B$4:$B$27,1) )</f>
+        <v>0.96168143500709902</v>
+      </c>
+      <c r="L8" s="10">
+        <f>((H8 - H3) / 360 - J8) / (J9 - J8) * K9</f>
+        <v>0.14304806816551896</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>31</v>
@@ -6224,8 +6361,24 @@
         <f>(D9 - (B8 - B3)/360)/(D9-D8) * E8</f>
         <v>0.80488554886463692</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="H9" s="19"/>
+      <c r="I9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="10">
+        <f>INDEX('Term Structure'!$B$4:$B$27,MATCH(($H$8 - $H$3)/360,'Term Structure'!$B$4:$B$27,1) + 1)</f>
+        <v>3.0611111111111109</v>
+      </c>
+      <c r="K9" s="10">
+        <f>INDEX('Term Structure'!$G$4:$G$27,MATCH(($B$8 - $B$3)/360,'Term Structure'!$B$4:$B$27,1) + 1)</f>
+        <v>0.94003016223055103</v>
+      </c>
+      <c r="L9" s="10">
+        <f>(J9 - (H8 - H3)/360)/(J9-J8) * K8</f>
+        <v>0.81533860794080104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
@@ -6236,31 +6389,41 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="H10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(L8:L9)</f>
+        <v>0.95838667610632</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:12">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="2:12">
+      <c r="B13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
@@ -6275,7 +6438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:12">
       <c r="B15" s="8">
         <f>$C$3</f>
         <v>43864</v>
@@ -6296,7 +6459,7 @@
         <v>0.12638816666666666</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:12">
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
         <v>31</v>
@@ -6334,13 +6497,13 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="6" t="s">
@@ -6416,13 +6579,13 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="6" t="s">
@@ -6499,7 +6662,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -6507,11 +6670,12 @@
       <c r="F31" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B25:F25"/>
+    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6547,7 +6711,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
